--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F4CC36-FE03-42D3-804E-D4B36D51FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191878A-7DFC-464C-9958-034374C5803D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A6A9719B-65E6-4B85-BB9B-7231670B31D1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>numbers in mio USD</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>Take Rate</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>73.41</v>
+        <v>83.19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -691,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>2089.0088649999998</v>
+        <v>2091.1680980000001</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,7 +718,7 @@
       </c>
       <c r="H4" s="2">
         <f>+H2*H3</f>
-        <v>153354.14077964998</v>
+        <v>173964.27407262</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -717,11 +729,11 @@
         <v>4</v>
       </c>
       <c r="H5" s="2">
-        <f>4680+727</f>
-        <v>5407</v>
+        <f>5132+894+1253</f>
+        <v>7279</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -729,10 +741,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>9459</v>
+        <v>8350</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,7 +756,7 @@
       </c>
       <c r="H7" s="2">
         <f>+H4-H5+H6</f>
-        <v>157406.14077964998</v>
+        <v>175035.27407262</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -783,13 +795,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E9A702-87E9-41A0-B660-23DDD0826055}">
-  <dimension ref="A1:BG367"/>
+  <dimension ref="A1:BK367"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,12 +810,12 @@
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -829,26 +841,38 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -876,25 +900,27 @@
       <c r="J3" s="2">
         <v>171</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <v>149</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
         <v>118</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>131</v>
       </c>
-      <c r="P3" s="2">
+      <c r="T3" s="2">
         <v>150</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="U3" s="2">
         <v>171</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -933,8 +959,12 @@
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -962,25 +992,27 @@
       <c r="J4" s="2">
         <v>3068</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>2572</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
         <v>6368</v>
       </c>
-      <c r="O4" s="2">
+      <c r="S4" s="2">
         <v>7642</v>
       </c>
-      <c r="P4" s="2">
+      <c r="T4" s="2">
         <v>9488</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="U4" s="2">
         <v>11273</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1019,8 +1051,12 @@
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1048,25 +1084,27 @@
       <c r="J5" s="2">
         <v>44197</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>37651</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
         <v>90415</v>
       </c>
-      <c r="O5" s="2">
+      <c r="S5" s="2">
         <v>115395</v>
       </c>
-      <c r="P5" s="2">
+      <c r="T5" s="2">
         <v>137865</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="U5" s="2">
         <v>162773</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1105,8 +1143,12 @@
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -1115,7 +1157,7 @@
         <v>0.28091569026999491</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:J6" si="0">+D11/D5</f>
+        <f t="shared" ref="D6:K6" si="0">+D11/D5</f>
         <v>0.27469420552959734</v>
       </c>
       <c r="E6" s="9">
@@ -1142,35 +1184,38 @@
         <f t="shared" si="0"/>
         <v>0.27058397628798336</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="9" t="e">
-        <f t="shared" ref="L6" si="1">+L11/L5</f>
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30631324533212928</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9" t="e">
+        <f t="shared" ref="P6" si="1">+P11/P5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="9" t="e">
-        <f t="shared" ref="M6" si="2">+M11/M5</f>
+      <c r="Q6" s="9" t="e">
+        <f t="shared" ref="Q6" si="2">+Q11/Q5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="9">
-        <f t="shared" ref="N6" si="3">+N11/N5</f>
+      <c r="R6" s="9">
+        <f t="shared" ref="R6" si="3">+R11/R5</f>
         <v>0.19305424984792346</v>
       </c>
-      <c r="O6" s="9">
-        <f t="shared" ref="O6" si="4">+O11/O5</f>
+      <c r="S6" s="9">
+        <f t="shared" ref="S6" si="4">+S11/S5</f>
         <v>0.27624247151089737</v>
       </c>
-      <c r="P6" s="9">
-        <f t="shared" ref="P6" si="5">+P11/P5</f>
+      <c r="T6" s="9">
+        <f t="shared" ref="T6" si="5">+T11/T5</f>
         <v>0.27041671200087042</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" ref="Q6" si="6">+Q11/Q5</f>
+      <c r="U6" s="9">
+        <f t="shared" ref="U6" si="6">+U11/U5</f>
         <v>0.27017994384818123</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1209,8 +1254,12 @@
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1268,8 +1317,12 @@
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -1283,7 +1336,7 @@
         <v>5071</v>
       </c>
       <c r="F8" s="2">
-        <f>+P8-SUM(C8:E8)</f>
+        <f>+T8-SUM(C8:E8)</f>
         <v>5537</v>
       </c>
       <c r="G8" s="2">
@@ -1296,28 +1349,30 @@
         <v>6409</v>
       </c>
       <c r="J8" s="2">
-        <f>+Q8-SUM(G8:I8)</f>
+        <f>+U8-SUM(G8:I8)</f>
         <v>6911</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>6496</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
         <v>6953</v>
       </c>
-      <c r="O8" s="2">
+      <c r="S8" s="2">
         <v>14029</v>
       </c>
-      <c r="P8" s="2">
+      <c r="T8" s="2">
         <v>19832</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="U8" s="2">
         <v>25087</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1356,8 +1411,12 @@
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1371,7 +1430,7 @@
         <v>2935</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F26" si="7">+P9-SUM(C9:E9)</f>
+        <f t="shared" ref="F9:F26" si="7">+T9-SUM(C9:E9)</f>
         <v>3119</v>
       </c>
       <c r="G9" s="2">
@@ -1384,28 +1443,30 @@
         <v>3470</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:J26" si="8">+Q9-SUM(G9:I9)</f>
+        <f t="shared" ref="J9:K26" si="8">+U9-SUM(G9:I9)</f>
         <v>3773</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>3777</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
         <v>8362</v>
       </c>
-      <c r="O9" s="2">
+      <c r="S9" s="2">
         <v>10901</v>
       </c>
-      <c r="P9" s="2">
+      <c r="T9" s="2">
         <v>12204</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="U9" s="2">
         <v>13750</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1444,8 +1505,12 @@
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -1475,26 +1540,28 @@
         <f t="shared" si="8"/>
         <v>1275</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>1260</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
         <f>2132+8</f>
         <v>2140</v>
       </c>
-      <c r="O10" s="2">
+      <c r="S10" s="2">
         <v>6947</v>
       </c>
-      <c r="P10" s="2">
+      <c r="T10" s="2">
         <v>5245</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="U10" s="2">
         <v>5141</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1533,8 +1600,12 @@
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1564,35 +1635,37 @@
         <f t="shared" si="8"/>
         <v>11959</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7">
+        <v>11533</v>
+      </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="7">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
         <v>11139</v>
       </c>
-      <c r="N11" s="7">
+      <c r="R11" s="7">
         <v>17455</v>
       </c>
-      <c r="O11" s="7">
+      <c r="S11" s="7">
         <v>31877</v>
       </c>
-      <c r="P11" s="7">
+      <c r="T11" s="7">
         <v>37281</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="U11" s="7">
         <v>43978</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -1623,8 +1696,12 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1654,27 +1731,29 @@
         <f t="shared" si="8"/>
         <v>7234</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>6937</v>
+      </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2">
         <v>5154</v>
       </c>
-      <c r="N12" s="2">
+      <c r="R12" s="2">
         <v>9351</v>
       </c>
-      <c r="O12" s="2">
+      <c r="S12" s="2">
         <v>19659</v>
       </c>
-      <c r="P12" s="2">
+      <c r="T12" s="2">
         <v>22457</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="U12" s="2">
         <v>26651</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1713,8 +1792,12 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1743,42 +1826,45 @@
         <v>4212</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" ref="I13:J13" si="10">+I11-I12</f>
+        <f t="shared" ref="I13:K13" si="10">+I11-I12</f>
         <v>4427</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="10"/>
         <v>4725</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13:O13" si="11">+L11-L12</f>
+      <c r="K13" s="2">
+        <f t="shared" si="10"/>
+        <v>4596</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13:S13" si="11">+P11-P12</f>
         <v>0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="Q13" s="2">
         <f t="shared" si="11"/>
         <v>5985</v>
       </c>
-      <c r="N13" s="2">
+      <c r="R13" s="2">
         <f t="shared" si="11"/>
         <v>8104</v>
       </c>
-      <c r="O13" s="2">
+      <c r="S13" s="2">
         <f t="shared" si="11"/>
         <v>12218</v>
       </c>
-      <c r="P13" s="2">
-        <f>+P11-P12</f>
+      <c r="T13" s="2">
+        <f>+T11-T12</f>
         <v>14824</v>
       </c>
-      <c r="Q13" s="2">
-        <f>+Q11-Q12</f>
+      <c r="U13" s="2">
+        <f>+U11-U12</f>
         <v>17327</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1817,8 +1903,12 @@
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1848,27 +1938,29 @@
         <f t="shared" si="8"/>
         <v>673</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>668</v>
+      </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="2">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
         <v>1819</v>
       </c>
-      <c r="N14" s="2">
+      <c r="R14" s="2">
         <v>1877</v>
       </c>
-      <c r="O14" s="2">
+      <c r="S14" s="2">
         <v>2413</v>
       </c>
-      <c r="P14" s="2">
+      <c r="T14" s="2">
         <v>2689</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="U14" s="2">
         <v>2732</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1907,8 +1999,12 @@
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -1938,27 +2034,29 @@
         <f t="shared" si="8"/>
         <v>1209</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>1057</v>
+      </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2">
         <v>3583</v>
       </c>
-      <c r="N15" s="2">
+      <c r="R15" s="2">
         <v>4789</v>
       </c>
-      <c r="O15" s="2">
+      <c r="S15" s="2">
         <v>4756</v>
       </c>
-      <c r="P15" s="2">
+      <c r="T15" s="2">
         <v>4356</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="U15" s="2">
         <v>4337</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1997,8 +2095,12 @@
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -2028,27 +2130,29 @@
         <f t="shared" si="8"/>
         <v>785</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>815</v>
+      </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="2">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2">
         <v>2205</v>
       </c>
-      <c r="N16" s="2">
+      <c r="R16" s="2">
         <v>2054</v>
       </c>
-      <c r="O16" s="2">
+      <c r="S16" s="2">
         <v>2798</v>
       </c>
-      <c r="P16" s="2">
+      <c r="T16" s="2">
         <v>3164</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="U16" s="2">
         <v>3109</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -2087,8 +2191,12 @@
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
-    </row>
-    <row r="17" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+    </row>
+    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -2118,27 +2226,29 @@
         <f t="shared" si="8"/>
         <v>1114</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>657</v>
+      </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2">
         <v>2666</v>
       </c>
-      <c r="N17" s="2">
+      <c r="R17" s="2">
         <v>2316</v>
       </c>
-      <c r="O17" s="2">
+      <c r="S17" s="2">
         <v>3136</v>
       </c>
-      <c r="P17" s="2">
+      <c r="T17" s="2">
         <v>2682</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="U17" s="2">
         <v>3639</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -2177,8 +2287,12 @@
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
-    </row>
-    <row r="18" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+    </row>
+    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -2208,27 +2322,29 @@
         <f t="shared" si="8"/>
         <v>169</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>171</v>
+      </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="2">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2">
         <v>575</v>
       </c>
-      <c r="N18" s="2">
+      <c r="R18" s="2">
         <v>902</v>
       </c>
-      <c r="O18" s="2">
+      <c r="S18" s="2">
         <v>947</v>
       </c>
-      <c r="P18" s="2">
+      <c r="T18" s="2">
         <v>823</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="U18" s="2">
         <v>711</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -2267,8 +2383,12 @@
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
-    </row>
-    <row r="19" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+    </row>
+    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -2297,42 +2417,45 @@
         <v>791</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" ref="I19:Q19" si="13">+I13-SUM(I14:I18)</f>
+        <f t="shared" ref="I19:U19" si="13">+I13-SUM(I14:I18)</f>
         <v>1061</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="13"/>
         <v>775</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
+      <c r="K19" s="2">
+        <f t="shared" si="13"/>
+        <v>1228</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="Q19" s="2">
         <f t="shared" si="13"/>
         <v>-4863</v>
       </c>
-      <c r="N19" s="2">
+      <c r="R19" s="2">
         <f t="shared" si="13"/>
         <v>-3834</v>
       </c>
-      <c r="O19" s="2">
+      <c r="S19" s="2">
         <f t="shared" si="13"/>
         <v>-1832</v>
       </c>
-      <c r="P19" s="2">
-        <f>+P13-SUM(P14:P18)</f>
+      <c r="T19" s="2">
+        <f>+T13-SUM(T14:T18)</f>
         <v>1110</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="U19" s="2">
         <f t="shared" si="13"/>
         <v>2799</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -2371,8 +2494,12 @@
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
-    </row>
-    <row r="20" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+    </row>
+    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -2400,27 +2527,29 @@
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>105</v>
+      </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="2">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2">
         <v>458</v>
       </c>
-      <c r="N20" s="2">
+      <c r="R20" s="2">
         <v>483</v>
       </c>
-      <c r="O20" s="2">
+      <c r="S20" s="2">
         <v>565</v>
       </c>
-      <c r="P20" s="2">
+      <c r="T20" s="2">
         <v>633</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="U20" s="2">
         <v>523</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -2459,8 +2588,12 @@
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
-    </row>
-    <row r="21" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+    </row>
+    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -2488,27 +2621,29 @@
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>262</v>
+      </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="2">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
         <v>-1625</v>
       </c>
-      <c r="N21" s="2">
+      <c r="R21" s="2">
         <v>3292</v>
       </c>
-      <c r="O21" s="2">
+      <c r="S21" s="2">
         <v>-7029</v>
       </c>
-      <c r="P21" s="2">
+      <c r="T21" s="2">
         <v>1844</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="U21" s="2">
         <v>1849</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -2547,8 +2682,12 @@
       <c r="BE21" s="2"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
-    </row>
-    <row r="22" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+    </row>
+    <row r="22" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -2581,38 +2720,41 @@
         <v>2769</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ref="J22:Q22" si="15">+J19-J20+J21</f>
+        <f t="shared" ref="J22:U22" si="15">+J19-J20+J21</f>
         <v>914</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
+      <c r="K22" s="2">
+        <f t="shared" si="15"/>
+        <v>1385</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="Q22" s="2">
         <f t="shared" si="15"/>
         <v>-6946</v>
       </c>
-      <c r="N22" s="2">
+      <c r="R22" s="2">
         <f t="shared" si="15"/>
         <v>-1025</v>
       </c>
-      <c r="O22" s="2">
+      <c r="S22" s="2">
         <f t="shared" si="15"/>
         <v>-9426</v>
       </c>
-      <c r="P22" s="2">
+      <c r="T22" s="2">
         <f t="shared" si="15"/>
         <v>2321</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="U22" s="2">
         <f t="shared" si="15"/>
         <v>4125</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -2651,8 +2793,12 @@
       <c r="BE22" s="2"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
-    </row>
-    <row r="23" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+    </row>
+    <row r="23" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -2680,27 +2826,29 @@
         <f t="shared" si="8"/>
         <v>-6002</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>-402</v>
+      </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="2">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
         <v>-192</v>
       </c>
-      <c r="N23" s="2">
+      <c r="R23" s="2">
         <v>-492</v>
       </c>
-      <c r="O23" s="2">
+      <c r="S23" s="2">
         <v>-181</v>
       </c>
-      <c r="P23" s="2">
+      <c r="T23" s="2">
         <v>213</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="U23" s="2">
         <v>-5758</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2739,8 +2887,12 @@
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
-    </row>
-    <row r="24" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+    </row>
+    <row r="24" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -2768,27 +2920,29 @@
         <f t="shared" si="8"/>
         <v>-10</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>-13</v>
+      </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="2">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
         <v>-34</v>
       </c>
-      <c r="N24" s="2">
+      <c r="R24" s="2">
         <v>-37</v>
       </c>
-      <c r="O24" s="2">
+      <c r="S24" s="2">
         <v>107</v>
       </c>
-      <c r="P24" s="2">
+      <c r="T24" s="2">
         <v>48</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="U24" s="2">
         <v>-38</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -2827,8 +2981,12 @@
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
-    </row>
-    <row r="25" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+    </row>
+    <row r="25" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -2861,38 +3019,41 @@
         <v>2599</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" ref="J25:Q25" si="17">+J22-J23+J24</f>
+        <f t="shared" ref="J25:U25" si="17">+J22-J23+J24</f>
         <v>6906</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2">
+      <c r="K25" s="2">
+        <f t="shared" si="17"/>
+        <v>1774</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M25" s="2">
+      <c r="Q25" s="2">
         <f t="shared" si="17"/>
         <v>-6788</v>
       </c>
-      <c r="N25" s="2">
+      <c r="R25" s="2">
         <f t="shared" si="17"/>
         <v>-570</v>
       </c>
-      <c r="O25" s="2">
+      <c r="S25" s="2">
         <f t="shared" si="17"/>
         <v>-9138</v>
       </c>
-      <c r="P25" s="2">
+      <c r="T25" s="2">
         <f t="shared" si="17"/>
         <v>2156</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="U25" s="2">
         <f t="shared" si="17"/>
         <v>9845</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -2931,8 +3092,12 @@
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
-    </row>
-    <row r="26" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+    </row>
+    <row r="26" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -2960,27 +3125,29 @@
         <f t="shared" si="8"/>
         <v>-8</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>-2</v>
+      </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="2">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2">
         <v>-20</v>
       </c>
-      <c r="N26" s="2">
+      <c r="R26" s="2">
         <v>-74</v>
       </c>
-      <c r="O26" s="2">
+      <c r="S26" s="2">
         <v>3</v>
       </c>
-      <c r="P26" s="2">
+      <c r="T26" s="2">
         <v>269</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="U26" s="2">
         <v>-11</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -3019,8 +3186,12 @@
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
-    </row>
-    <row r="27" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+    </row>
+    <row r="27" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -3053,38 +3224,41 @@
         <v>2586</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" ref="J27:Q27" si="19">+J25-J26</f>
+        <f t="shared" ref="J27:U27" si="19">+J25-J26</f>
         <v>6914</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2">
+      <c r="K27" s="2">
+        <f t="shared" si="19"/>
+        <v>1776</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M27" s="2">
+      <c r="Q27" s="2">
         <f t="shared" si="19"/>
         <v>-6768</v>
       </c>
-      <c r="N27" s="2">
+      <c r="R27" s="2">
         <f t="shared" si="19"/>
         <v>-496</v>
       </c>
-      <c r="O27" s="2">
+      <c r="S27" s="2">
         <f t="shared" si="19"/>
         <v>-9141</v>
       </c>
-      <c r="P27" s="2">
+      <c r="T27" s="2">
         <f t="shared" si="19"/>
         <v>1887</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="U27" s="2">
         <f t="shared" si="19"/>
         <v>9856</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -3123,8 +3297,12 @@
       <c r="BE27" s="2"/>
       <c r="BF27" s="2"/>
       <c r="BG27" s="2"/>
-    </row>
-    <row r="28" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+    </row>
+    <row r="28" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3182,8 +3360,12 @@
       <c r="BE28" s="2"/>
       <c r="BF28" s="2"/>
       <c r="BG28" s="2"/>
-    </row>
-    <row r="29" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+    </row>
+    <row r="29" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -3216,35 +3398,38 @@
         <v>1.2304559253161786</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ref="J29" si="21">+J27/J30</f>
+        <f t="shared" ref="J29:K29" si="21">+J27/J30</f>
         <v>3.3008657491972224</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8">
-        <f t="shared" ref="M29:P29" si="22">+M27/M30</f>
+      <c r="K29" s="8">
+        <f t="shared" si="21"/>
+        <v>0.84876012203794193</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="8">
+        <f t="shared" ref="Q29:T29" si="22">+Q27/Q30</f>
         <v>-3.8608981380065717</v>
       </c>
-      <c r="N29" s="8">
+      <c r="R29" s="8">
         <f t="shared" si="22"/>
         <v>-0.26208081600130195</v>
       </c>
-      <c r="O29" s="8">
+      <c r="S29" s="8">
         <f t="shared" si="22"/>
         <v>-4.6350876285601714</v>
       </c>
-      <c r="P29" s="8">
+      <c r="T29" s="8">
         <f t="shared" si="22"/>
         <v>0.92697618599651899</v>
       </c>
-      <c r="Q29" s="8">
-        <f>+Q27/Q30</f>
+      <c r="U29" s="8">
+        <f>+U27/U30</f>
         <v>4.7054285253236658</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -3283,8 +3468,12 @@
       <c r="BE29" s="2"/>
       <c r="BF29" s="2"/>
       <c r="BG29" s="2"/>
-    </row>
-    <row r="30" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+    </row>
+    <row r="30" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -3298,7 +3487,7 @@
         <v>2044.6880000000001</v>
       </c>
       <c r="F30" s="2">
-        <f>+P30</f>
+        <f>+T30</f>
         <v>2035.6510000000001</v>
       </c>
       <c r="G30" s="2">
@@ -3311,30 +3500,32 @@
         <v>2101.66</v>
       </c>
       <c r="J30" s="2">
-        <f>+Q30</f>
+        <f>+U30</f>
         <v>2094.6019999999999</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>2092.4639999999999</v>
+      </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="2">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2">
         <v>1752.96</v>
       </c>
-      <c r="N30" s="2">
+      <c r="R30" s="2">
         <v>1892.546</v>
       </c>
-      <c r="O30" s="2">
+      <c r="S30" s="2">
         <v>1972.1310000000001</v>
       </c>
-      <c r="P30" s="2">
+      <c r="T30" s="2">
         <v>2035.6510000000001</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="U30" s="2">
         <v>2094.6019999999999</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -3373,8 +3564,12 @@
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="2"/>
-    </row>
-    <row r="31" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+    </row>
+    <row r="31" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3432,8 +3627,12 @@
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
       <c r="BG31" s="2"/>
-    </row>
-    <row r="32" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+    </row>
+    <row r="32" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -3442,47 +3641,50 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="9">
-        <f>+G3/C3-1</f>
+        <f t="shared" ref="G32:K34" si="23">+G3/C3-1</f>
         <v>0.14615384615384608</v>
       </c>
       <c r="H32" s="9">
-        <f>+H3/D3-1</f>
+        <f t="shared" si="23"/>
         <v>0.13868613138686126</v>
       </c>
       <c r="I32" s="9">
-        <f>+I3/E3-1</f>
+        <f t="shared" si="23"/>
         <v>0.13380281690140849</v>
       </c>
       <c r="J32" s="9">
-        <f>+J3/F3-1</f>
+        <f t="shared" si="23"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="9" t="e">
-        <f t="shared" ref="M32:M34" si="23">+M3/L3-1</f>
+      <c r="K32" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="9" t="e">
+        <f t="shared" ref="Q32:Q34" si="24">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="9" t="e">
-        <f t="shared" ref="N32:N34" si="24">+N3/M3-1</f>
+      <c r="R32" s="9" t="e">
+        <f t="shared" ref="R32:R34" si="25">+R3/Q3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="9">
-        <f t="shared" ref="O32:O34" si="25">+O3/N3-1</f>
+      <c r="S32" s="9">
+        <f t="shared" ref="S32:S34" si="26">+S3/R3-1</f>
         <v>0.11016949152542366</v>
       </c>
-      <c r="P32" s="9">
-        <f t="shared" ref="P32" si="26">+P3/O3-1</f>
+      <c r="T32" s="9">
+        <f t="shared" ref="T32" si="27">+T3/S3-1</f>
         <v>0.14503816793893121</v>
       </c>
-      <c r="Q32" s="9">
-        <f>+Q3/P3-1</f>
+      <c r="U32" s="9">
+        <f>+U3/T3-1</f>
         <v>0.1399999999999999</v>
       </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -3521,8 +3723,12 @@
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
-    </row>
-    <row r="33" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+    </row>
+    <row r="33" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -3531,47 +3737,50 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="9">
-        <f>+G4/C4-1</f>
+        <f t="shared" si="23"/>
         <v>0.21092278719397362</v>
       </c>
       <c r="H33" s="9">
-        <f>+H4/D4-1</f>
+        <f t="shared" si="23"/>
         <v>0.21165644171779152</v>
       </c>
       <c r="I33" s="9">
-        <f>+I4/E4-1</f>
+        <f t="shared" si="23"/>
         <v>0.17492830807046289</v>
       </c>
       <c r="J33" s="9">
-        <f>+J4/F4-1</f>
+        <f t="shared" si="23"/>
         <v>0.17954632833525563</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="9" t="e">
+      <c r="K33" s="9">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="9" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="9">
+      <c r="R33" s="9" t="e">
         <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="9">
+        <f t="shared" si="26"/>
         <v>0.20006281407035176</v>
       </c>
-      <c r="P33" s="9">
-        <f>+P4/O4-1</f>
+      <c r="T33" s="9">
+        <f>+T4/S4-1</f>
         <v>0.24155980109918862</v>
       </c>
-      <c r="Q33" s="9">
-        <f>+Q4/P4-1</f>
+      <c r="U33" s="9">
+        <f>+U4/T4-1</f>
         <v>0.18813237774030345</v>
       </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -3610,8 +3819,12 @@
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
-    </row>
-    <row r="34" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+    </row>
+    <row r="34" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -3620,47 +3833,50 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9">
-        <f>+G5/C5-1</f>
+        <f t="shared" si="23"/>
         <v>0.19877101375445738</v>
       </c>
       <c r="H34" s="9">
-        <f>+H5/D5-1</f>
+        <f t="shared" si="23"/>
         <v>0.1890122317788161</v>
       </c>
       <c r="I34" s="9">
-        <f>+I5/E5-1</f>
+        <f t="shared" si="23"/>
         <v>0.16133329554150966</v>
       </c>
       <c r="J34" s="9">
-        <f>+J5/F5-1</f>
+        <f t="shared" si="23"/>
         <v>0.17623419827012632</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="9" t="e">
+      <c r="K34" s="9">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="9" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="9">
+      <c r="R34" s="9" t="e">
         <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="26"/>
         <v>0.27628159044406342</v>
       </c>
-      <c r="P34" s="9">
-        <f>+P5/O5-1</f>
+      <c r="T34" s="9">
+        <f>+T5/S5-1</f>
         <v>0.19472247497725204</v>
       </c>
-      <c r="Q34" s="9">
-        <f>+Q5/P5-1</f>
+      <c r="U34" s="9">
+        <f>+U5/T5-1</f>
         <v>0.18066949552098066</v>
       </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -3699,8 +3915,12 @@
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
-    </row>
-    <row r="35" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+    </row>
+    <row r="35" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -3717,39 +3937,42 @@
         <v>0.25337147527584802</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" ref="I35:J38" si="27">I8/E8-1</f>
+        <f t="shared" ref="I35:K38" si="28">I8/E8-1</f>
         <v>0.26385328337605984</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.24814881704894343</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="9" t="e">
-        <f t="shared" ref="M35" si="28">+M8/L8-1</f>
+      <c r="K35" s="9">
+        <f t="shared" si="28"/>
+        <v>0.15320433161725555</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="9" t="e">
+        <f t="shared" ref="Q35" si="29">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="9" t="e">
-        <f t="shared" ref="N35" si="29">+N8/M8-1</f>
+      <c r="R35" s="9" t="e">
+        <f t="shared" ref="R35" si="30">+R8/Q8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" s="9">
-        <f t="shared" ref="O35" si="30">+O8/N8-1</f>
+      <c r="S35" s="9">
+        <f t="shared" ref="S35" si="31">+S8/R8-1</f>
         <v>1.0176902056666188</v>
       </c>
-      <c r="P35" s="9">
-        <f t="shared" ref="P35:P36" si="31">+P8/O8-1</f>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35:T36" si="32">+T8/S8-1</f>
         <v>0.41364316772400023</v>
       </c>
-      <c r="Q35" s="9">
-        <f>+Q8/P8-1</f>
+      <c r="U35" s="9">
+        <f>+U8/T8-1</f>
         <v>0.2649757966922146</v>
       </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -3788,8 +4011,12 @@
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
-    </row>
-    <row r="36" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+    </row>
+    <row r="36" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>41</v>
       </c>
@@ -3798,47 +4025,50 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="9">
-        <f t="shared" ref="G36:H38" si="32">G9/C9-1</f>
+        <f t="shared" ref="G36:H38" si="33">G9/C9-1</f>
         <v>3.9120594891690841E-2</v>
       </c>
       <c r="H36" s="9">
+        <f t="shared" si="33"/>
+        <v>7.7199869152764222E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="28"/>
+        <v>0.18228279386712098</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="28"/>
+        <v>0.20968259057390193</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="28"/>
+        <v>0.17517112632233967</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9" t="e">
+        <f t="shared" ref="Q36:S36" si="34">+Q9/P9-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="9" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" si="34"/>
+        <v>0.30363549390098066</v>
+      </c>
+      <c r="T36" s="9">
         <f t="shared" si="32"/>
-        <v>7.7199869152764222E-2</v>
-      </c>
-      <c r="I36" s="9">
-        <f t="shared" si="27"/>
-        <v>0.18228279386712098</v>
-      </c>
-      <c r="J36" s="9">
-        <f t="shared" si="27"/>
-        <v>0.20968259057390193</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9" t="e">
-        <f t="shared" ref="L36:Q36" si="33">+M9/L9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="9" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="9">
-        <f t="shared" si="33"/>
-        <v>0.30363549390098066</v>
-      </c>
-      <c r="P36" s="9">
-        <f t="shared" si="31"/>
         <v>0.11953031831942029</v>
       </c>
-      <c r="Q36" s="9">
-        <f>+Q9/P9-1</f>
+      <c r="U36" s="9">
+        <f>+U9/T9-1</f>
         <v>0.12667977712225498</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -3877,8 +4107,12 @@
       <c r="BE36" s="2"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
-    </row>
-    <row r="37" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+    </row>
+    <row r="37" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -3887,47 +4121,50 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-8.2857142857142851E-2</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-4.691164972634887E-3</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.7884914463452528E-2</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.90625E-3</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="9" t="e">
-        <f t="shared" ref="M37:Q37" si="34">+M10/L10-1</f>
+      <c r="K37" s="9">
+        <f t="shared" si="28"/>
+        <v>-1.8691588785046731E-2</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="9" t="e">
+        <f t="shared" ref="Q37:T37" si="35">+Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="9" t="e">
-        <f t="shared" si="34"/>
+      <c r="R37" s="9" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O37" s="9">
-        <f t="shared" si="34"/>
+      <c r="S37" s="9">
+        <f t="shared" si="35"/>
         <v>2.2462616822429906</v>
       </c>
-      <c r="P37" s="9">
-        <f t="shared" si="34"/>
+      <c r="T37" s="9">
+        <f t="shared" si="35"/>
         <v>-0.24499784079458764</v>
       </c>
-      <c r="Q37" s="9">
-        <f>+Q10/P10-1</f>
+      <c r="U37" s="9">
+        <f>+U10/T10-1</f>
         <v>-1.9828408007626308E-2</v>
       </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -3966,9 +4203,13 @@
       <c r="BE37" s="2"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
-    </row>
-    <row r="38" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+    </row>
+    <row r="38" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="2"/>
@@ -3976,44 +4217,47 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.14824889493369597</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.15926327193932832</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.20404649160568233</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.20360305958132052</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="10">
-        <f>+N11/M11-1</f>
+      <c r="K38" s="10">
+        <f t="shared" si="28"/>
+        <v>0.13838712861514169</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="10">
+        <f>+R11/Q11-1</f>
         <v>0.56701678786246523</v>
       </c>
-      <c r="O38" s="10">
-        <f>+O11/N11-1</f>
+      <c r="S38" s="10">
+        <f>+S11/R11-1</f>
         <v>0.8262389000286452</v>
       </c>
-      <c r="P38" s="10">
-        <f>+P11/O11-1</f>
+      <c r="T38" s="10">
+        <f>+T11/S11-1</f>
         <v>0.16952661793769797</v>
       </c>
-      <c r="Q38" s="10">
-        <f>+Q11/P11-1</f>
+      <c r="U38" s="10">
+        <f>+U11/T11-1</f>
         <v>0.17963573938467325</v>
       </c>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -4052,29 +4296,33 @@
       <c r="BE38" s="2"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
-    </row>
-    <row r="39" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+    </row>
+    <row r="39" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" ref="C39:G39" si="35">+C13/C11</f>
+        <f t="shared" ref="C39:G39" si="36">+C13/C11</f>
         <v>0.40394423665419926</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.40249187432286027</v>
       </c>
       <c r="E39" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.39453293155402497</v>
       </c>
       <c r="F39" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.39039855072463769</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.39117559964465504</v>
       </c>
       <c r="H39" s="9">
@@ -4082,42 +4330,45 @@
         <v>0.39364485981308411</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" ref="I39:J39" si="36">+I13/I11</f>
+        <f t="shared" ref="I39:J39" si="37">+I13/I11</f>
         <v>0.39569181265641756</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.39509992474287148</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="9" t="e">
-        <f t="shared" ref="L39:Q39" si="37">+L13/L11</f>
+      <c r="K39" s="9">
+        <f t="shared" ref="K39" si="38">+K13/K11</f>
+        <v>0.39850862741697735</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="9" t="e">
+        <f t="shared" ref="P39:U39" si="39">+P13/P11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="9">
-        <f t="shared" si="37"/>
+      <c r="Q39" s="9">
+        <f t="shared" si="39"/>
         <v>0.5373013735523835</v>
       </c>
-      <c r="N39" s="9">
-        <f t="shared" si="37"/>
+      <c r="R39" s="9">
+        <f t="shared" si="39"/>
         <v>0.46427957605270698</v>
       </c>
-      <c r="O39" s="9">
-        <f t="shared" si="37"/>
+      <c r="S39" s="9">
+        <f t="shared" si="39"/>
         <v>0.38328575461931802</v>
       </c>
-      <c r="P39" s="9">
-        <f t="shared" si="37"/>
+      <c r="T39" s="9">
+        <f t="shared" si="39"/>
         <v>0.39762881896944824</v>
       </c>
-      <c r="Q39" s="9">
-        <f t="shared" si="37"/>
+      <c r="U39" s="9">
+        <f t="shared" si="39"/>
         <v>0.39399245077083994</v>
       </c>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -4156,29 +4407,33 @@
       <c r="BE39" s="2"/>
       <c r="BF39" s="2"/>
       <c r="BG39" s="2"/>
-    </row>
-    <row r="40" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+    </row>
+    <row r="40" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" ref="C40:G40" si="38">+C19/C11</f>
+        <f t="shared" ref="C40:G40" si="40">+C19/C11</f>
         <v>-2.9695115040235746E-2</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3.5319609967497292E-2</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.240206629358588E-2</v>
       </c>
       <c r="F40" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6.5619967793880837E-2</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.6977593524824794E-2</v>
       </c>
       <c r="H40" s="9">
@@ -4186,42 +4441,45 @@
         <v>7.3925233644859811E-2</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" ref="I40:J40" si="39">+I19/I11</f>
+        <f t="shared" ref="I40:J40" si="41">+I19/I11</f>
         <v>9.4833750446907394E-2</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.4804749561000088E-2</v>
       </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="9" t="e">
-        <f t="shared" ref="L40:Q40" si="40">+L19/L11</f>
+      <c r="K40" s="9">
+        <f t="shared" ref="K40" si="42">+K19/K11</f>
+        <v>0.10647706581115061</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="9" t="e">
+        <f t="shared" ref="P40:U40" si="43">+P19/P11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="9">
-        <f t="shared" si="40"/>
+      <c r="Q40" s="9">
+        <f t="shared" si="43"/>
         <v>-0.43657419876110959</v>
       </c>
-      <c r="N40" s="9">
-        <f t="shared" si="40"/>
+      <c r="R40" s="9">
+        <f t="shared" si="43"/>
         <v>-0.2196505299341163</v>
       </c>
-      <c r="O40" s="9">
-        <f t="shared" si="40"/>
+      <c r="S40" s="9">
+        <f t="shared" si="43"/>
         <v>-5.7470903786429085E-2</v>
       </c>
-      <c r="P40" s="9">
-        <f t="shared" si="40"/>
+      <c r="T40" s="9">
+        <f t="shared" si="43"/>
         <v>2.9773879456023174E-2</v>
       </c>
-      <c r="Q40" s="9">
-        <f t="shared" si="40"/>
+      <c r="U40" s="9">
+        <f t="shared" si="43"/>
         <v>6.3645459093182949E-2</v>
       </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -4260,29 +4518,33 @@
       <c r="BE40" s="2"/>
       <c r="BF40" s="2"/>
       <c r="BG40" s="2"/>
-    </row>
-    <row r="41" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+    </row>
+    <row r="41" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:G41" si="41">+C23/C22</f>
+        <f t="shared" ref="C41:G41" si="44">+C23/C22</f>
         <v>0</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="E41" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.22727272727272727</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>9.6311475409836061E-2</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-4.6031746031746035E-2</v>
       </c>
       <c r="H41" s="9">
@@ -4290,42 +4552,45 @@
         <v>5.3171641791044777E-2</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41:J41" si="42">+I23/I22</f>
+        <f t="shared" ref="I41:J41" si="45">+I23/I22</f>
         <v>5.7060310581437339E-2</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-6.566739606126915</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="9" t="e">
-        <f t="shared" ref="L41:Q41" si="43">+L23/L22</f>
+      <c r="K41" s="9">
+        <f t="shared" ref="K41" si="46">+K23/K22</f>
+        <v>-0.29025270758122745</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="9" t="e">
+        <f t="shared" ref="P41:U41" si="47">+P23/P22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="9">
-        <f t="shared" si="43"/>
+      <c r="Q41" s="9">
+        <f t="shared" si="47"/>
         <v>2.7641808234955371E-2</v>
       </c>
-      <c r="N41" s="9">
-        <f t="shared" si="43"/>
+      <c r="R41" s="9">
+        <f t="shared" si="47"/>
         <v>0.48</v>
       </c>
-      <c r="O41" s="9">
-        <f t="shared" si="43"/>
+      <c r="S41" s="9">
+        <f t="shared" si="47"/>
         <v>1.9202206662423085E-2</v>
       </c>
-      <c r="P41" s="9">
-        <f t="shared" si="43"/>
+      <c r="T41" s="9">
+        <f t="shared" si="47"/>
         <v>9.1770788453252913E-2</v>
       </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="43"/>
+      <c r="U41" s="9">
+        <f t="shared" si="47"/>
         <v>-1.3958787878787879</v>
       </c>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -4364,8 +4629,12 @@
       <c r="BE41" s="2"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="2"/>
-    </row>
-    <row r="42" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+    </row>
+    <row r="42" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4423,8 +4692,12 @@
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="2"/>
-    </row>
-    <row r="43" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+    </row>
+    <row r="43" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4482,8 +4755,12 @@
       <c r="BE43" s="2"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="2"/>
-    </row>
-    <row r="44" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
+    </row>
+    <row r="44" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -4541,8 +4818,12 @@
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
-    </row>
-    <row r="45" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="2"/>
+    </row>
+    <row r="45" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4600,8 +4881,12 @@
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="2"/>
-    </row>
-    <row r="46" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+    </row>
+    <row r="46" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4659,8 +4944,12 @@
       <c r="BE46" s="2"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
-    </row>
-    <row r="47" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+    </row>
+    <row r="47" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4718,8 +5007,12 @@
       <c r="BE47" s="2"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
-    </row>
-    <row r="48" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+    </row>
+    <row r="48" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4777,8 +5070,12 @@
       <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
-    </row>
-    <row r="49" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+    </row>
+    <row r="49" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4836,8 +5133,12 @@
       <c r="BE49" s="2"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
-    </row>
-    <row r="50" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+    </row>
+    <row r="50" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4895,8 +5196,12 @@
       <c r="BE50" s="2"/>
       <c r="BF50" s="2"/>
       <c r="BG50" s="2"/>
-    </row>
-    <row r="51" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+    </row>
+    <row r="51" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4954,8 +5259,12 @@
       <c r="BE51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
-    </row>
-    <row r="52" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+    </row>
+    <row r="52" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -5013,8 +5322,12 @@
       <c r="BE52" s="2"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="2"/>
-    </row>
-    <row r="53" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="2"/>
+    </row>
+    <row r="53" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -5072,8 +5385,12 @@
       <c r="BE53" s="2"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="2"/>
-    </row>
-    <row r="54" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="2"/>
+    </row>
+    <row r="54" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -5131,8 +5448,12 @@
       <c r="BE54" s="2"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="2"/>
-    </row>
-    <row r="55" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="2"/>
+    </row>
+    <row r="55" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -5190,8 +5511,12 @@
       <c r="BE55" s="2"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="2"/>
-    </row>
-    <row r="56" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
+      <c r="BJ55" s="2"/>
+      <c r="BK55" s="2"/>
+    </row>
+    <row r="56" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -5249,8 +5574,12 @@
       <c r="BE56" s="2"/>
       <c r="BF56" s="2"/>
       <c r="BG56" s="2"/>
-    </row>
-    <row r="57" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+      <c r="BJ56" s="2"/>
+      <c r="BK56" s="2"/>
+    </row>
+    <row r="57" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -5308,8 +5637,12 @@
       <c r="BE57" s="2"/>
       <c r="BF57" s="2"/>
       <c r="BG57" s="2"/>
-    </row>
-    <row r="58" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="2"/>
+      <c r="BK57" s="2"/>
+    </row>
+    <row r="58" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5367,8 +5700,12 @@
       <c r="BE58" s="2"/>
       <c r="BF58" s="2"/>
       <c r="BG58" s="2"/>
-    </row>
-    <row r="59" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+      <c r="BJ58" s="2"/>
+      <c r="BK58" s="2"/>
+    </row>
+    <row r="59" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5426,8 +5763,12 @@
       <c r="BE59" s="2"/>
       <c r="BF59" s="2"/>
       <c r="BG59" s="2"/>
-    </row>
-    <row r="60" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="2"/>
+    </row>
+    <row r="60" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5485,8 +5826,12 @@
       <c r="BE60" s="2"/>
       <c r="BF60" s="2"/>
       <c r="BG60" s="2"/>
-    </row>
-    <row r="61" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+      <c r="BJ60" s="2"/>
+      <c r="BK60" s="2"/>
+    </row>
+    <row r="61" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5544,8 +5889,12 @@
       <c r="BE61" s="2"/>
       <c r="BF61" s="2"/>
       <c r="BG61" s="2"/>
-    </row>
-    <row r="62" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH61" s="2"/>
+      <c r="BI61" s="2"/>
+      <c r="BJ61" s="2"/>
+      <c r="BK61" s="2"/>
+    </row>
+    <row r="62" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5603,8 +5952,12 @@
       <c r="BE62" s="2"/>
       <c r="BF62" s="2"/>
       <c r="BG62" s="2"/>
-    </row>
-    <row r="63" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH62" s="2"/>
+      <c r="BI62" s="2"/>
+      <c r="BJ62" s="2"/>
+      <c r="BK62" s="2"/>
+    </row>
+    <row r="63" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5662,8 +6015,12 @@
       <c r="BE63" s="2"/>
       <c r="BF63" s="2"/>
       <c r="BG63" s="2"/>
-    </row>
-    <row r="64" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH63" s="2"/>
+      <c r="BI63" s="2"/>
+      <c r="BJ63" s="2"/>
+      <c r="BK63" s="2"/>
+    </row>
+    <row r="64" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5721,8 +6078,12 @@
       <c r="BE64" s="2"/>
       <c r="BF64" s="2"/>
       <c r="BG64" s="2"/>
-    </row>
-    <row r="65" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH64" s="2"/>
+      <c r="BI64" s="2"/>
+      <c r="BJ64" s="2"/>
+      <c r="BK64" s="2"/>
+    </row>
+    <row r="65" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5780,8 +6141,12 @@
       <c r="BE65" s="2"/>
       <c r="BF65" s="2"/>
       <c r="BG65" s="2"/>
-    </row>
-    <row r="66" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH65" s="2"/>
+      <c r="BI65" s="2"/>
+      <c r="BJ65" s="2"/>
+      <c r="BK65" s="2"/>
+    </row>
+    <row r="66" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5839,8 +6204,12 @@
       <c r="BE66" s="2"/>
       <c r="BF66" s="2"/>
       <c r="BG66" s="2"/>
-    </row>
-    <row r="67" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH66" s="2"/>
+      <c r="BI66" s="2"/>
+      <c r="BJ66" s="2"/>
+      <c r="BK66" s="2"/>
+    </row>
+    <row r="67" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5898,8 +6267,12 @@
       <c r="BE67" s="2"/>
       <c r="BF67" s="2"/>
       <c r="BG67" s="2"/>
-    </row>
-    <row r="68" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH67" s="2"/>
+      <c r="BI67" s="2"/>
+      <c r="BJ67" s="2"/>
+      <c r="BK67" s="2"/>
+    </row>
+    <row r="68" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5957,8 +6330,12 @@
       <c r="BE68" s="2"/>
       <c r="BF68" s="2"/>
       <c r="BG68" s="2"/>
-    </row>
-    <row r="69" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="2"/>
+      <c r="BK68" s="2"/>
+    </row>
+    <row r="69" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6016,8 +6393,12 @@
       <c r="BE69" s="2"/>
       <c r="BF69" s="2"/>
       <c r="BG69" s="2"/>
-    </row>
-    <row r="70" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+      <c r="BJ69" s="2"/>
+      <c r="BK69" s="2"/>
+    </row>
+    <row r="70" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -6075,8 +6456,12 @@
       <c r="BE70" s="2"/>
       <c r="BF70" s="2"/>
       <c r="BG70" s="2"/>
-    </row>
-    <row r="71" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH70" s="2"/>
+      <c r="BI70" s="2"/>
+      <c r="BJ70" s="2"/>
+      <c r="BK70" s="2"/>
+    </row>
+    <row r="71" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -6134,8 +6519,12 @@
       <c r="BE71" s="2"/>
       <c r="BF71" s="2"/>
       <c r="BG71" s="2"/>
-    </row>
-    <row r="72" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH71" s="2"/>
+      <c r="BI71" s="2"/>
+      <c r="BJ71" s="2"/>
+      <c r="BK71" s="2"/>
+    </row>
+    <row r="72" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -6193,8 +6582,12 @@
       <c r="BE72" s="2"/>
       <c r="BF72" s="2"/>
       <c r="BG72" s="2"/>
-    </row>
-    <row r="73" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH72" s="2"/>
+      <c r="BI72" s="2"/>
+      <c r="BJ72" s="2"/>
+      <c r="BK72" s="2"/>
+    </row>
+    <row r="73" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -6252,8 +6645,12 @@
       <c r="BE73" s="2"/>
       <c r="BF73" s="2"/>
       <c r="BG73" s="2"/>
-    </row>
-    <row r="74" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH73" s="2"/>
+      <c r="BI73" s="2"/>
+      <c r="BJ73" s="2"/>
+      <c r="BK73" s="2"/>
+    </row>
+    <row r="74" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -6311,8 +6708,12 @@
       <c r="BE74" s="2"/>
       <c r="BF74" s="2"/>
       <c r="BG74" s="2"/>
-    </row>
-    <row r="75" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH74" s="2"/>
+      <c r="BI74" s="2"/>
+      <c r="BJ74" s="2"/>
+      <c r="BK74" s="2"/>
+    </row>
+    <row r="75" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -6370,8 +6771,12 @@
       <c r="BE75" s="2"/>
       <c r="BF75" s="2"/>
       <c r="BG75" s="2"/>
-    </row>
-    <row r="76" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH75" s="2"/>
+      <c r="BI75" s="2"/>
+      <c r="BJ75" s="2"/>
+      <c r="BK75" s="2"/>
+    </row>
+    <row r="76" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -6429,8 +6834,12 @@
       <c r="BE76" s="2"/>
       <c r="BF76" s="2"/>
       <c r="BG76" s="2"/>
-    </row>
-    <row r="77" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH76" s="2"/>
+      <c r="BI76" s="2"/>
+      <c r="BJ76" s="2"/>
+      <c r="BK76" s="2"/>
+    </row>
+    <row r="77" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6488,8 +6897,12 @@
       <c r="BE77" s="2"/>
       <c r="BF77" s="2"/>
       <c r="BG77" s="2"/>
-    </row>
-    <row r="78" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH77" s="2"/>
+      <c r="BI77" s="2"/>
+      <c r="BJ77" s="2"/>
+      <c r="BK77" s="2"/>
+    </row>
+    <row r="78" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6547,8 +6960,12 @@
       <c r="BE78" s="2"/>
       <c r="BF78" s="2"/>
       <c r="BG78" s="2"/>
-    </row>
-    <row r="79" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH78" s="2"/>
+      <c r="BI78" s="2"/>
+      <c r="BJ78" s="2"/>
+      <c r="BK78" s="2"/>
+    </row>
+    <row r="79" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -6606,8 +7023,12 @@
       <c r="BE79" s="2"/>
       <c r="BF79" s="2"/>
       <c r="BG79" s="2"/>
-    </row>
-    <row r="80" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH79" s="2"/>
+      <c r="BI79" s="2"/>
+      <c r="BJ79" s="2"/>
+      <c r="BK79" s="2"/>
+    </row>
+    <row r="80" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6665,8 +7086,12 @@
       <c r="BE80" s="2"/>
       <c r="BF80" s="2"/>
       <c r="BG80" s="2"/>
-    </row>
-    <row r="81" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH80" s="2"/>
+      <c r="BI80" s="2"/>
+      <c r="BJ80" s="2"/>
+      <c r="BK80" s="2"/>
+    </row>
+    <row r="81" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6724,8 +7149,12 @@
       <c r="BE81" s="2"/>
       <c r="BF81" s="2"/>
       <c r="BG81" s="2"/>
-    </row>
-    <row r="82" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH81" s="2"/>
+      <c r="BI81" s="2"/>
+      <c r="BJ81" s="2"/>
+      <c r="BK81" s="2"/>
+    </row>
+    <row r="82" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6783,8 +7212,12 @@
       <c r="BE82" s="2"/>
       <c r="BF82" s="2"/>
       <c r="BG82" s="2"/>
-    </row>
-    <row r="83" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH82" s="2"/>
+      <c r="BI82" s="2"/>
+      <c r="BJ82" s="2"/>
+      <c r="BK82" s="2"/>
+    </row>
+    <row r="83" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6842,8 +7275,12 @@
       <c r="BE83" s="2"/>
       <c r="BF83" s="2"/>
       <c r="BG83" s="2"/>
-    </row>
-    <row r="84" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="2"/>
+      <c r="BK83" s="2"/>
+    </row>
+    <row r="84" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6901,8 +7338,12 @@
       <c r="BE84" s="2"/>
       <c r="BF84" s="2"/>
       <c r="BG84" s="2"/>
-    </row>
-    <row r="85" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH84" s="2"/>
+      <c r="BI84" s="2"/>
+      <c r="BJ84" s="2"/>
+      <c r="BK84" s="2"/>
+    </row>
+    <row r="85" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6960,8 +7401,12 @@
       <c r="BE85" s="2"/>
       <c r="BF85" s="2"/>
       <c r="BG85" s="2"/>
-    </row>
-    <row r="86" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH85" s="2"/>
+      <c r="BI85" s="2"/>
+      <c r="BJ85" s="2"/>
+      <c r="BK85" s="2"/>
+    </row>
+    <row r="86" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7019,8 +7464,12 @@
       <c r="BE86" s="2"/>
       <c r="BF86" s="2"/>
       <c r="BG86" s="2"/>
-    </row>
-    <row r="87" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH86" s="2"/>
+      <c r="BI86" s="2"/>
+      <c r="BJ86" s="2"/>
+      <c r="BK86" s="2"/>
+    </row>
+    <row r="87" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -7078,8 +7527,12 @@
       <c r="BE87" s="2"/>
       <c r="BF87" s="2"/>
       <c r="BG87" s="2"/>
-    </row>
-    <row r="88" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH87" s="2"/>
+      <c r="BI87" s="2"/>
+      <c r="BJ87" s="2"/>
+      <c r="BK87" s="2"/>
+    </row>
+    <row r="88" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -7137,8 +7590,12 @@
       <c r="BE88" s="2"/>
       <c r="BF88" s="2"/>
       <c r="BG88" s="2"/>
-    </row>
-    <row r="89" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH88" s="2"/>
+      <c r="BI88" s="2"/>
+      <c r="BJ88" s="2"/>
+      <c r="BK88" s="2"/>
+    </row>
+    <row r="89" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -7196,8 +7653,12 @@
       <c r="BE89" s="2"/>
       <c r="BF89" s="2"/>
       <c r="BG89" s="2"/>
-    </row>
-    <row r="90" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH89" s="2"/>
+      <c r="BI89" s="2"/>
+      <c r="BJ89" s="2"/>
+      <c r="BK89" s="2"/>
+    </row>
+    <row r="90" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -7255,8 +7716,12 @@
       <c r="BE90" s="2"/>
       <c r="BF90" s="2"/>
       <c r="BG90" s="2"/>
-    </row>
-    <row r="91" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+      <c r="BJ90" s="2"/>
+      <c r="BK90" s="2"/>
+    </row>
+    <row r="91" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -7314,8 +7779,12 @@
       <c r="BE91" s="2"/>
       <c r="BF91" s="2"/>
       <c r="BG91" s="2"/>
-    </row>
-    <row r="92" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH91" s="2"/>
+      <c r="BI91" s="2"/>
+      <c r="BJ91" s="2"/>
+      <c r="BK91" s="2"/>
+    </row>
+    <row r="92" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -7373,8 +7842,12 @@
       <c r="BE92" s="2"/>
       <c r="BF92" s="2"/>
       <c r="BG92" s="2"/>
-    </row>
-    <row r="93" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH92" s="2"/>
+      <c r="BI92" s="2"/>
+      <c r="BJ92" s="2"/>
+      <c r="BK92" s="2"/>
+    </row>
+    <row r="93" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -7432,8 +7905,12 @@
       <c r="BE93" s="2"/>
       <c r="BF93" s="2"/>
       <c r="BG93" s="2"/>
-    </row>
-    <row r="94" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH93" s="2"/>
+      <c r="BI93" s="2"/>
+      <c r="BJ93" s="2"/>
+      <c r="BK93" s="2"/>
+    </row>
+    <row r="94" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -7491,8 +7968,12 @@
       <c r="BE94" s="2"/>
       <c r="BF94" s="2"/>
       <c r="BG94" s="2"/>
-    </row>
-    <row r="95" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH94" s="2"/>
+      <c r="BI94" s="2"/>
+      <c r="BJ94" s="2"/>
+      <c r="BK94" s="2"/>
+    </row>
+    <row r="95" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -7550,8 +8031,12 @@
       <c r="BE95" s="2"/>
       <c r="BF95" s="2"/>
       <c r="BG95" s="2"/>
-    </row>
-    <row r="96" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH95" s="2"/>
+      <c r="BI95" s="2"/>
+      <c r="BJ95" s="2"/>
+      <c r="BK95" s="2"/>
+    </row>
+    <row r="96" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -7609,8 +8094,12 @@
       <c r="BE96" s="2"/>
       <c r="BF96" s="2"/>
       <c r="BG96" s="2"/>
-    </row>
-    <row r="97" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH96" s="2"/>
+      <c r="BI96" s="2"/>
+      <c r="BJ96" s="2"/>
+      <c r="BK96" s="2"/>
+    </row>
+    <row r="97" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -7668,8 +8157,12 @@
       <c r="BE97" s="2"/>
       <c r="BF97" s="2"/>
       <c r="BG97" s="2"/>
-    </row>
-    <row r="98" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH97" s="2"/>
+      <c r="BI97" s="2"/>
+      <c r="BJ97" s="2"/>
+      <c r="BK97" s="2"/>
+    </row>
+    <row r="98" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -7727,8 +8220,12 @@
       <c r="BE98" s="2"/>
       <c r="BF98" s="2"/>
       <c r="BG98" s="2"/>
-    </row>
-    <row r="99" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH98" s="2"/>
+      <c r="BI98" s="2"/>
+      <c r="BJ98" s="2"/>
+      <c r="BK98" s="2"/>
+    </row>
+    <row r="99" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -7786,8 +8283,12 @@
       <c r="BE99" s="2"/>
       <c r="BF99" s="2"/>
       <c r="BG99" s="2"/>
-    </row>
-    <row r="100" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH99" s="2"/>
+      <c r="BI99" s="2"/>
+      <c r="BJ99" s="2"/>
+      <c r="BK99" s="2"/>
+    </row>
+    <row r="100" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -7845,8 +8346,12 @@
       <c r="BE100" s="2"/>
       <c r="BF100" s="2"/>
       <c r="BG100" s="2"/>
-    </row>
-    <row r="101" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH100" s="2"/>
+      <c r="BI100" s="2"/>
+      <c r="BJ100" s="2"/>
+      <c r="BK100" s="2"/>
+    </row>
+    <row r="101" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -7904,8 +8409,12 @@
       <c r="BE101" s="2"/>
       <c r="BF101" s="2"/>
       <c r="BG101" s="2"/>
-    </row>
-    <row r="102" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH101" s="2"/>
+      <c r="BI101" s="2"/>
+      <c r="BJ101" s="2"/>
+      <c r="BK101" s="2"/>
+    </row>
+    <row r="102" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -7963,8 +8472,12 @@
       <c r="BE102" s="2"/>
       <c r="BF102" s="2"/>
       <c r="BG102" s="2"/>
-    </row>
-    <row r="103" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH102" s="2"/>
+      <c r="BI102" s="2"/>
+      <c r="BJ102" s="2"/>
+      <c r="BK102" s="2"/>
+    </row>
+    <row r="103" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -8022,8 +8535,12 @@
       <c r="BE103" s="2"/>
       <c r="BF103" s="2"/>
       <c r="BG103" s="2"/>
-    </row>
-    <row r="104" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH103" s="2"/>
+      <c r="BI103" s="2"/>
+      <c r="BJ103" s="2"/>
+      <c r="BK103" s="2"/>
+    </row>
+    <row r="104" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -8081,8 +8598,12 @@
       <c r="BE104" s="2"/>
       <c r="BF104" s="2"/>
       <c r="BG104" s="2"/>
-    </row>
-    <row r="105" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH104" s="2"/>
+      <c r="BI104" s="2"/>
+      <c r="BJ104" s="2"/>
+      <c r="BK104" s="2"/>
+    </row>
+    <row r="105" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -8140,8 +8661,12 @@
       <c r="BE105" s="2"/>
       <c r="BF105" s="2"/>
       <c r="BG105" s="2"/>
-    </row>
-    <row r="106" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH105" s="2"/>
+      <c r="BI105" s="2"/>
+      <c r="BJ105" s="2"/>
+      <c r="BK105" s="2"/>
+    </row>
+    <row r="106" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -8199,8 +8724,12 @@
       <c r="BE106" s="2"/>
       <c r="BF106" s="2"/>
       <c r="BG106" s="2"/>
-    </row>
-    <row r="107" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH106" s="2"/>
+      <c r="BI106" s="2"/>
+      <c r="BJ106" s="2"/>
+      <c r="BK106" s="2"/>
+    </row>
+    <row r="107" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8258,8 +8787,12 @@
       <c r="BE107" s="2"/>
       <c r="BF107" s="2"/>
       <c r="BG107" s="2"/>
-    </row>
-    <row r="108" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH107" s="2"/>
+      <c r="BI107" s="2"/>
+      <c r="BJ107" s="2"/>
+      <c r="BK107" s="2"/>
+    </row>
+    <row r="108" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8317,8 +8850,12 @@
       <c r="BE108" s="2"/>
       <c r="BF108" s="2"/>
       <c r="BG108" s="2"/>
-    </row>
-    <row r="109" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH108" s="2"/>
+      <c r="BI108" s="2"/>
+      <c r="BJ108" s="2"/>
+      <c r="BK108" s="2"/>
+    </row>
+    <row r="109" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8376,8 +8913,12 @@
       <c r="BE109" s="2"/>
       <c r="BF109" s="2"/>
       <c r="BG109" s="2"/>
-    </row>
-    <row r="110" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH109" s="2"/>
+      <c r="BI109" s="2"/>
+      <c r="BJ109" s="2"/>
+      <c r="BK109" s="2"/>
+    </row>
+    <row r="110" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8435,8 +8976,12 @@
       <c r="BE110" s="2"/>
       <c r="BF110" s="2"/>
       <c r="BG110" s="2"/>
-    </row>
-    <row r="111" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH110" s="2"/>
+      <c r="BI110" s="2"/>
+      <c r="BJ110" s="2"/>
+      <c r="BK110" s="2"/>
+    </row>
+    <row r="111" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8494,8 +9039,12 @@
       <c r="BE111" s="2"/>
       <c r="BF111" s="2"/>
       <c r="BG111" s="2"/>
-    </row>
-    <row r="112" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH111" s="2"/>
+      <c r="BI111" s="2"/>
+      <c r="BJ111" s="2"/>
+      <c r="BK111" s="2"/>
+    </row>
+    <row r="112" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8553,8 +9102,12 @@
       <c r="BE112" s="2"/>
       <c r="BF112" s="2"/>
       <c r="BG112" s="2"/>
-    </row>
-    <row r="113" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH112" s="2"/>
+      <c r="BI112" s="2"/>
+      <c r="BJ112" s="2"/>
+      <c r="BK112" s="2"/>
+    </row>
+    <row r="113" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8612,8 +9165,12 @@
       <c r="BE113" s="2"/>
       <c r="BF113" s="2"/>
       <c r="BG113" s="2"/>
-    </row>
-    <row r="114" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH113" s="2"/>
+      <c r="BI113" s="2"/>
+      <c r="BJ113" s="2"/>
+      <c r="BK113" s="2"/>
+    </row>
+    <row r="114" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8671,8 +9228,12 @@
       <c r="BE114" s="2"/>
       <c r="BF114" s="2"/>
       <c r="BG114" s="2"/>
-    </row>
-    <row r="115" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH114" s="2"/>
+      <c r="BI114" s="2"/>
+      <c r="BJ114" s="2"/>
+      <c r="BK114" s="2"/>
+    </row>
+    <row r="115" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8730,8 +9291,12 @@
       <c r="BE115" s="2"/>
       <c r="BF115" s="2"/>
       <c r="BG115" s="2"/>
-    </row>
-    <row r="116" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH115" s="2"/>
+      <c r="BI115" s="2"/>
+      <c r="BJ115" s="2"/>
+      <c r="BK115" s="2"/>
+    </row>
+    <row r="116" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8789,8 +9354,12 @@
       <c r="BE116" s="2"/>
       <c r="BF116" s="2"/>
       <c r="BG116" s="2"/>
-    </row>
-    <row r="117" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH116" s="2"/>
+      <c r="BI116" s="2"/>
+      <c r="BJ116" s="2"/>
+      <c r="BK116" s="2"/>
+    </row>
+    <row r="117" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8848,8 +9417,12 @@
       <c r="BE117" s="2"/>
       <c r="BF117" s="2"/>
       <c r="BG117" s="2"/>
-    </row>
-    <row r="118" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH117" s="2"/>
+      <c r="BI117" s="2"/>
+      <c r="BJ117" s="2"/>
+      <c r="BK117" s="2"/>
+    </row>
+    <row r="118" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8907,8 +9480,12 @@
       <c r="BE118" s="2"/>
       <c r="BF118" s="2"/>
       <c r="BG118" s="2"/>
-    </row>
-    <row r="119" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH118" s="2"/>
+      <c r="BI118" s="2"/>
+      <c r="BJ118" s="2"/>
+      <c r="BK118" s="2"/>
+    </row>
+    <row r="119" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8966,8 +9543,12 @@
       <c r="BE119" s="2"/>
       <c r="BF119" s="2"/>
       <c r="BG119" s="2"/>
-    </row>
-    <row r="120" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH119" s="2"/>
+      <c r="BI119" s="2"/>
+      <c r="BJ119" s="2"/>
+      <c r="BK119" s="2"/>
+    </row>
+    <row r="120" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -9025,8 +9606,12 @@
       <c r="BE120" s="2"/>
       <c r="BF120" s="2"/>
       <c r="BG120" s="2"/>
-    </row>
-    <row r="121" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH120" s="2"/>
+      <c r="BI120" s="2"/>
+      <c r="BJ120" s="2"/>
+      <c r="BK120" s="2"/>
+    </row>
+    <row r="121" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -9084,8 +9669,12 @@
       <c r="BE121" s="2"/>
       <c r="BF121" s="2"/>
       <c r="BG121" s="2"/>
-    </row>
-    <row r="122" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH121" s="2"/>
+      <c r="BI121" s="2"/>
+      <c r="BJ121" s="2"/>
+      <c r="BK121" s="2"/>
+    </row>
+    <row r="122" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -9143,8 +9732,12 @@
       <c r="BE122" s="2"/>
       <c r="BF122" s="2"/>
       <c r="BG122" s="2"/>
-    </row>
-    <row r="123" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH122" s="2"/>
+      <c r="BI122" s="2"/>
+      <c r="BJ122" s="2"/>
+      <c r="BK122" s="2"/>
+    </row>
+    <row r="123" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -9202,8 +9795,12 @@
       <c r="BE123" s="2"/>
       <c r="BF123" s="2"/>
       <c r="BG123" s="2"/>
-    </row>
-    <row r="124" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH123" s="2"/>
+      <c r="BI123" s="2"/>
+      <c r="BJ123" s="2"/>
+      <c r="BK123" s="2"/>
+    </row>
+    <row r="124" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -9261,8 +9858,12 @@
       <c r="BE124" s="2"/>
       <c r="BF124" s="2"/>
       <c r="BG124" s="2"/>
-    </row>
-    <row r="125" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH124" s="2"/>
+      <c r="BI124" s="2"/>
+      <c r="BJ124" s="2"/>
+      <c r="BK124" s="2"/>
+    </row>
+    <row r="125" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -9320,8 +9921,12 @@
       <c r="BE125" s="2"/>
       <c r="BF125" s="2"/>
       <c r="BG125" s="2"/>
-    </row>
-    <row r="126" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH125" s="2"/>
+      <c r="BI125" s="2"/>
+      <c r="BJ125" s="2"/>
+      <c r="BK125" s="2"/>
+    </row>
+    <row r="126" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -9379,8 +9984,12 @@
       <c r="BE126" s="2"/>
       <c r="BF126" s="2"/>
       <c r="BG126" s="2"/>
-    </row>
-    <row r="127" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH126" s="2"/>
+      <c r="BI126" s="2"/>
+      <c r="BJ126" s="2"/>
+      <c r="BK126" s="2"/>
+    </row>
+    <row r="127" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -9438,8 +10047,12 @@
       <c r="BE127" s="2"/>
       <c r="BF127" s="2"/>
       <c r="BG127" s="2"/>
-    </row>
-    <row r="128" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH127" s="2"/>
+      <c r="BI127" s="2"/>
+      <c r="BJ127" s="2"/>
+      <c r="BK127" s="2"/>
+    </row>
+    <row r="128" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -9497,8 +10110,12 @@
       <c r="BE128" s="2"/>
       <c r="BF128" s="2"/>
       <c r="BG128" s="2"/>
-    </row>
-    <row r="129" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH128" s="2"/>
+      <c r="BI128" s="2"/>
+      <c r="BJ128" s="2"/>
+      <c r="BK128" s="2"/>
+    </row>
+    <row r="129" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -9556,8 +10173,12 @@
       <c r="BE129" s="2"/>
       <c r="BF129" s="2"/>
       <c r="BG129" s="2"/>
-    </row>
-    <row r="130" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH129" s="2"/>
+      <c r="BI129" s="2"/>
+      <c r="BJ129" s="2"/>
+      <c r="BK129" s="2"/>
+    </row>
+    <row r="130" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -9615,8 +10236,12 @@
       <c r="BE130" s="2"/>
       <c r="BF130" s="2"/>
       <c r="BG130" s="2"/>
-    </row>
-    <row r="131" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH130" s="2"/>
+      <c r="BI130" s="2"/>
+      <c r="BJ130" s="2"/>
+      <c r="BK130" s="2"/>
+    </row>
+    <row r="131" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -9674,8 +10299,12 @@
       <c r="BE131" s="2"/>
       <c r="BF131" s="2"/>
       <c r="BG131" s="2"/>
-    </row>
-    <row r="132" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH131" s="2"/>
+      <c r="BI131" s="2"/>
+      <c r="BJ131" s="2"/>
+      <c r="BK131" s="2"/>
+    </row>
+    <row r="132" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -9733,8 +10362,12 @@
       <c r="BE132" s="2"/>
       <c r="BF132" s="2"/>
       <c r="BG132" s="2"/>
-    </row>
-    <row r="133" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH132" s="2"/>
+      <c r="BI132" s="2"/>
+      <c r="BJ132" s="2"/>
+      <c r="BK132" s="2"/>
+    </row>
+    <row r="133" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -9792,8 +10425,12 @@
       <c r="BE133" s="2"/>
       <c r="BF133" s="2"/>
       <c r="BG133" s="2"/>
-    </row>
-    <row r="134" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH133" s="2"/>
+      <c r="BI133" s="2"/>
+      <c r="BJ133" s="2"/>
+      <c r="BK133" s="2"/>
+    </row>
+    <row r="134" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -9851,8 +10488,12 @@
       <c r="BE134" s="2"/>
       <c r="BF134" s="2"/>
       <c r="BG134" s="2"/>
-    </row>
-    <row r="135" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH134" s="2"/>
+      <c r="BI134" s="2"/>
+      <c r="BJ134" s="2"/>
+      <c r="BK134" s="2"/>
+    </row>
+    <row r="135" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -9910,8 +10551,12 @@
       <c r="BE135" s="2"/>
       <c r="BF135" s="2"/>
       <c r="BG135" s="2"/>
-    </row>
-    <row r="136" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH135" s="2"/>
+      <c r="BI135" s="2"/>
+      <c r="BJ135" s="2"/>
+      <c r="BK135" s="2"/>
+    </row>
+    <row r="136" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -9969,8 +10614,12 @@
       <c r="BE136" s="2"/>
       <c r="BF136" s="2"/>
       <c r="BG136" s="2"/>
-    </row>
-    <row r="137" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH136" s="2"/>
+      <c r="BI136" s="2"/>
+      <c r="BJ136" s="2"/>
+      <c r="BK136" s="2"/>
+    </row>
+    <row r="137" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -10028,8 +10677,12 @@
       <c r="BE137" s="2"/>
       <c r="BF137" s="2"/>
       <c r="BG137" s="2"/>
-    </row>
-    <row r="138" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH137" s="2"/>
+      <c r="BI137" s="2"/>
+      <c r="BJ137" s="2"/>
+      <c r="BK137" s="2"/>
+    </row>
+    <row r="138" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -10087,8 +10740,12 @@
       <c r="BE138" s="2"/>
       <c r="BF138" s="2"/>
       <c r="BG138" s="2"/>
-    </row>
-    <row r="139" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH138" s="2"/>
+      <c r="BI138" s="2"/>
+      <c r="BJ138" s="2"/>
+      <c r="BK138" s="2"/>
+    </row>
+    <row r="139" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -10146,8 +10803,12 @@
       <c r="BE139" s="2"/>
       <c r="BF139" s="2"/>
       <c r="BG139" s="2"/>
-    </row>
-    <row r="140" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH139" s="2"/>
+      <c r="BI139" s="2"/>
+      <c r="BJ139" s="2"/>
+      <c r="BK139" s="2"/>
+    </row>
+    <row r="140" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -10205,8 +10866,12 @@
       <c r="BE140" s="2"/>
       <c r="BF140" s="2"/>
       <c r="BG140" s="2"/>
-    </row>
-    <row r="141" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH140" s="2"/>
+      <c r="BI140" s="2"/>
+      <c r="BJ140" s="2"/>
+      <c r="BK140" s="2"/>
+    </row>
+    <row r="141" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -10264,8 +10929,12 @@
       <c r="BE141" s="2"/>
       <c r="BF141" s="2"/>
       <c r="BG141" s="2"/>
-    </row>
-    <row r="142" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH141" s="2"/>
+      <c r="BI141" s="2"/>
+      <c r="BJ141" s="2"/>
+      <c r="BK141" s="2"/>
+    </row>
+    <row r="142" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -10323,8 +10992,12 @@
       <c r="BE142" s="2"/>
       <c r="BF142" s="2"/>
       <c r="BG142" s="2"/>
-    </row>
-    <row r="143" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH142" s="2"/>
+      <c r="BI142" s="2"/>
+      <c r="BJ142" s="2"/>
+      <c r="BK142" s="2"/>
+    </row>
+    <row r="143" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -10382,8 +11055,12 @@
       <c r="BE143" s="2"/>
       <c r="BF143" s="2"/>
       <c r="BG143" s="2"/>
-    </row>
-    <row r="144" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH143" s="2"/>
+      <c r="BI143" s="2"/>
+      <c r="BJ143" s="2"/>
+      <c r="BK143" s="2"/>
+    </row>
+    <row r="144" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -10441,8 +11118,12 @@
       <c r="BE144" s="2"/>
       <c r="BF144" s="2"/>
       <c r="BG144" s="2"/>
-    </row>
-    <row r="145" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH144" s="2"/>
+      <c r="BI144" s="2"/>
+      <c r="BJ144" s="2"/>
+      <c r="BK144" s="2"/>
+    </row>
+    <row r="145" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -10500,8 +11181,12 @@
       <c r="BE145" s="2"/>
       <c r="BF145" s="2"/>
       <c r="BG145" s="2"/>
-    </row>
-    <row r="146" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH145" s="2"/>
+      <c r="BI145" s="2"/>
+      <c r="BJ145" s="2"/>
+      <c r="BK145" s="2"/>
+    </row>
+    <row r="146" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -10559,8 +11244,12 @@
       <c r="BE146" s="2"/>
       <c r="BF146" s="2"/>
       <c r="BG146" s="2"/>
-    </row>
-    <row r="147" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH146" s="2"/>
+      <c r="BI146" s="2"/>
+      <c r="BJ146" s="2"/>
+      <c r="BK146" s="2"/>
+    </row>
+    <row r="147" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -10618,8 +11307,12 @@
       <c r="BE147" s="2"/>
       <c r="BF147" s="2"/>
       <c r="BG147" s="2"/>
-    </row>
-    <row r="148" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH147" s="2"/>
+      <c r="BI147" s="2"/>
+      <c r="BJ147" s="2"/>
+      <c r="BK147" s="2"/>
+    </row>
+    <row r="148" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -10677,8 +11370,12 @@
       <c r="BE148" s="2"/>
       <c r="BF148" s="2"/>
       <c r="BG148" s="2"/>
-    </row>
-    <row r="149" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH148" s="2"/>
+      <c r="BI148" s="2"/>
+      <c r="BJ148" s="2"/>
+      <c r="BK148" s="2"/>
+    </row>
+    <row r="149" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -10736,8 +11433,12 @@
       <c r="BE149" s="2"/>
       <c r="BF149" s="2"/>
       <c r="BG149" s="2"/>
-    </row>
-    <row r="150" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH149" s="2"/>
+      <c r="BI149" s="2"/>
+      <c r="BJ149" s="2"/>
+      <c r="BK149" s="2"/>
+    </row>
+    <row r="150" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -10795,8 +11496,12 @@
       <c r="BE150" s="2"/>
       <c r="BF150" s="2"/>
       <c r="BG150" s="2"/>
-    </row>
-    <row r="151" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH150" s="2"/>
+      <c r="BI150" s="2"/>
+      <c r="BJ150" s="2"/>
+      <c r="BK150" s="2"/>
+    </row>
+    <row r="151" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -10854,8 +11559,12 @@
       <c r="BE151" s="2"/>
       <c r="BF151" s="2"/>
       <c r="BG151" s="2"/>
-    </row>
-    <row r="152" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH151" s="2"/>
+      <c r="BI151" s="2"/>
+      <c r="BJ151" s="2"/>
+      <c r="BK151" s="2"/>
+    </row>
+    <row r="152" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -10913,8 +11622,12 @@
       <c r="BE152" s="2"/>
       <c r="BF152" s="2"/>
       <c r="BG152" s="2"/>
-    </row>
-    <row r="153" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH152" s="2"/>
+      <c r="BI152" s="2"/>
+      <c r="BJ152" s="2"/>
+      <c r="BK152" s="2"/>
+    </row>
+    <row r="153" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -10972,8 +11685,12 @@
       <c r="BE153" s="2"/>
       <c r="BF153" s="2"/>
       <c r="BG153" s="2"/>
-    </row>
-    <row r="154" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH153" s="2"/>
+      <c r="BI153" s="2"/>
+      <c r="BJ153" s="2"/>
+      <c r="BK153" s="2"/>
+    </row>
+    <row r="154" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -11031,8 +11748,12 @@
       <c r="BE154" s="2"/>
       <c r="BF154" s="2"/>
       <c r="BG154" s="2"/>
-    </row>
-    <row r="155" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH154" s="2"/>
+      <c r="BI154" s="2"/>
+      <c r="BJ154" s="2"/>
+      <c r="BK154" s="2"/>
+    </row>
+    <row r="155" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -11090,8 +11811,12 @@
       <c r="BE155" s="2"/>
       <c r="BF155" s="2"/>
       <c r="BG155" s="2"/>
-    </row>
-    <row r="156" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH155" s="2"/>
+      <c r="BI155" s="2"/>
+      <c r="BJ155" s="2"/>
+      <c r="BK155" s="2"/>
+    </row>
+    <row r="156" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -11149,8 +11874,12 @@
       <c r="BE156" s="2"/>
       <c r="BF156" s="2"/>
       <c r="BG156" s="2"/>
-    </row>
-    <row r="157" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH156" s="2"/>
+      <c r="BI156" s="2"/>
+      <c r="BJ156" s="2"/>
+      <c r="BK156" s="2"/>
+    </row>
+    <row r="157" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -11208,8 +11937,12 @@
       <c r="BE157" s="2"/>
       <c r="BF157" s="2"/>
       <c r="BG157" s="2"/>
-    </row>
-    <row r="158" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH157" s="2"/>
+      <c r="BI157" s="2"/>
+      <c r="BJ157" s="2"/>
+      <c r="BK157" s="2"/>
+    </row>
+    <row r="158" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -11267,8 +12000,12 @@
       <c r="BE158" s="2"/>
       <c r="BF158" s="2"/>
       <c r="BG158" s="2"/>
-    </row>
-    <row r="159" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH158" s="2"/>
+      <c r="BI158" s="2"/>
+      <c r="BJ158" s="2"/>
+      <c r="BK158" s="2"/>
+    </row>
+    <row r="159" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -11326,8 +12063,12 @@
       <c r="BE159" s="2"/>
       <c r="BF159" s="2"/>
       <c r="BG159" s="2"/>
-    </row>
-    <row r="160" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH159" s="2"/>
+      <c r="BI159" s="2"/>
+      <c r="BJ159" s="2"/>
+      <c r="BK159" s="2"/>
+    </row>
+    <row r="160" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -11385,8 +12126,12 @@
       <c r="BE160" s="2"/>
       <c r="BF160" s="2"/>
       <c r="BG160" s="2"/>
-    </row>
-    <row r="161" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH160" s="2"/>
+      <c r="BI160" s="2"/>
+      <c r="BJ160" s="2"/>
+      <c r="BK160" s="2"/>
+    </row>
+    <row r="161" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -11444,8 +12189,12 @@
       <c r="BE161" s="2"/>
       <c r="BF161" s="2"/>
       <c r="BG161" s="2"/>
-    </row>
-    <row r="162" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH161" s="2"/>
+      <c r="BI161" s="2"/>
+      <c r="BJ161" s="2"/>
+      <c r="BK161" s="2"/>
+    </row>
+    <row r="162" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -11503,8 +12252,12 @@
       <c r="BE162" s="2"/>
       <c r="BF162" s="2"/>
       <c r="BG162" s="2"/>
-    </row>
-    <row r="163" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH162" s="2"/>
+      <c r="BI162" s="2"/>
+      <c r="BJ162" s="2"/>
+      <c r="BK162" s="2"/>
+    </row>
+    <row r="163" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -11562,8 +12315,12 @@
       <c r="BE163" s="2"/>
       <c r="BF163" s="2"/>
       <c r="BG163" s="2"/>
-    </row>
-    <row r="164" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH163" s="2"/>
+      <c r="BI163" s="2"/>
+      <c r="BJ163" s="2"/>
+      <c r="BK163" s="2"/>
+    </row>
+    <row r="164" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -11621,8 +12378,12 @@
       <c r="BE164" s="2"/>
       <c r="BF164" s="2"/>
       <c r="BG164" s="2"/>
-    </row>
-    <row r="165" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH164" s="2"/>
+      <c r="BI164" s="2"/>
+      <c r="BJ164" s="2"/>
+      <c r="BK164" s="2"/>
+    </row>
+    <row r="165" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -11680,8 +12441,12 @@
       <c r="BE165" s="2"/>
       <c r="BF165" s="2"/>
       <c r="BG165" s="2"/>
-    </row>
-    <row r="166" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH165" s="2"/>
+      <c r="BI165" s="2"/>
+      <c r="BJ165" s="2"/>
+      <c r="BK165" s="2"/>
+    </row>
+    <row r="166" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -11739,8 +12504,12 @@
       <c r="BE166" s="2"/>
       <c r="BF166" s="2"/>
       <c r="BG166" s="2"/>
-    </row>
-    <row r="167" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH166" s="2"/>
+      <c r="BI166" s="2"/>
+      <c r="BJ166" s="2"/>
+      <c r="BK166" s="2"/>
+    </row>
+    <row r="167" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -11798,8 +12567,12 @@
       <c r="BE167" s="2"/>
       <c r="BF167" s="2"/>
       <c r="BG167" s="2"/>
-    </row>
-    <row r="168" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH167" s="2"/>
+      <c r="BI167" s="2"/>
+      <c r="BJ167" s="2"/>
+      <c r="BK167" s="2"/>
+    </row>
+    <row r="168" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -11857,8 +12630,12 @@
       <c r="BE168" s="2"/>
       <c r="BF168" s="2"/>
       <c r="BG168" s="2"/>
-    </row>
-    <row r="169" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH168" s="2"/>
+      <c r="BI168" s="2"/>
+      <c r="BJ168" s="2"/>
+      <c r="BK168" s="2"/>
+    </row>
+    <row r="169" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -11916,8 +12693,12 @@
       <c r="BE169" s="2"/>
       <c r="BF169" s="2"/>
       <c r="BG169" s="2"/>
-    </row>
-    <row r="170" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH169" s="2"/>
+      <c r="BI169" s="2"/>
+      <c r="BJ169" s="2"/>
+      <c r="BK169" s="2"/>
+    </row>
+    <row r="170" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -11975,8 +12756,12 @@
       <c r="BE170" s="2"/>
       <c r="BF170" s="2"/>
       <c r="BG170" s="2"/>
-    </row>
-    <row r="171" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH170" s="2"/>
+      <c r="BI170" s="2"/>
+      <c r="BJ170" s="2"/>
+      <c r="BK170" s="2"/>
+    </row>
+    <row r="171" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -12034,8 +12819,12 @@
       <c r="BE171" s="2"/>
       <c r="BF171" s="2"/>
       <c r="BG171" s="2"/>
-    </row>
-    <row r="172" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH171" s="2"/>
+      <c r="BI171" s="2"/>
+      <c r="BJ171" s="2"/>
+      <c r="BK171" s="2"/>
+    </row>
+    <row r="172" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -12093,8 +12882,12 @@
       <c r="BE172" s="2"/>
       <c r="BF172" s="2"/>
       <c r="BG172" s="2"/>
-    </row>
-    <row r="173" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH172" s="2"/>
+      <c r="BI172" s="2"/>
+      <c r="BJ172" s="2"/>
+      <c r="BK172" s="2"/>
+    </row>
+    <row r="173" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -12152,8 +12945,12 @@
       <c r="BE173" s="2"/>
       <c r="BF173" s="2"/>
       <c r="BG173" s="2"/>
-    </row>
-    <row r="174" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH173" s="2"/>
+      <c r="BI173" s="2"/>
+      <c r="BJ173" s="2"/>
+      <c r="BK173" s="2"/>
+    </row>
+    <row r="174" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -12211,8 +13008,12 @@
       <c r="BE174" s="2"/>
       <c r="BF174" s="2"/>
       <c r="BG174" s="2"/>
-    </row>
-    <row r="175" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH174" s="2"/>
+      <c r="BI174" s="2"/>
+      <c r="BJ174" s="2"/>
+      <c r="BK174" s="2"/>
+    </row>
+    <row r="175" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -12270,8 +13071,12 @@
       <c r="BE175" s="2"/>
       <c r="BF175" s="2"/>
       <c r="BG175" s="2"/>
-    </row>
-    <row r="176" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH175" s="2"/>
+      <c r="BI175" s="2"/>
+      <c r="BJ175" s="2"/>
+      <c r="BK175" s="2"/>
+    </row>
+    <row r="176" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -12329,8 +13134,12 @@
       <c r="BE176" s="2"/>
       <c r="BF176" s="2"/>
       <c r="BG176" s="2"/>
-    </row>
-    <row r="177" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH176" s="2"/>
+      <c r="BI176" s="2"/>
+      <c r="BJ176" s="2"/>
+      <c r="BK176" s="2"/>
+    </row>
+    <row r="177" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -12388,8 +13197,12 @@
       <c r="BE177" s="2"/>
       <c r="BF177" s="2"/>
       <c r="BG177" s="2"/>
-    </row>
-    <row r="178" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH177" s="2"/>
+      <c r="BI177" s="2"/>
+      <c r="BJ177" s="2"/>
+      <c r="BK177" s="2"/>
+    </row>
+    <row r="178" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -12447,8 +13260,12 @@
       <c r="BE178" s="2"/>
       <c r="BF178" s="2"/>
       <c r="BG178" s="2"/>
-    </row>
-    <row r="179" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH178" s="2"/>
+      <c r="BI178" s="2"/>
+      <c r="BJ178" s="2"/>
+      <c r="BK178" s="2"/>
+    </row>
+    <row r="179" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -12506,8 +13323,12 @@
       <c r="BE179" s="2"/>
       <c r="BF179" s="2"/>
       <c r="BG179" s="2"/>
-    </row>
-    <row r="180" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH179" s="2"/>
+      <c r="BI179" s="2"/>
+      <c r="BJ179" s="2"/>
+      <c r="BK179" s="2"/>
+    </row>
+    <row r="180" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -12565,8 +13386,12 @@
       <c r="BE180" s="2"/>
       <c r="BF180" s="2"/>
       <c r="BG180" s="2"/>
-    </row>
-    <row r="181" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH180" s="2"/>
+      <c r="BI180" s="2"/>
+      <c r="BJ180" s="2"/>
+      <c r="BK180" s="2"/>
+    </row>
+    <row r="181" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -12624,8 +13449,12 @@
       <c r="BE181" s="2"/>
       <c r="BF181" s="2"/>
       <c r="BG181" s="2"/>
-    </row>
-    <row r="182" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH181" s="2"/>
+      <c r="BI181" s="2"/>
+      <c r="BJ181" s="2"/>
+      <c r="BK181" s="2"/>
+    </row>
+    <row r="182" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -12683,8 +13512,12 @@
       <c r="BE182" s="2"/>
       <c r="BF182" s="2"/>
       <c r="BG182" s="2"/>
-    </row>
-    <row r="183" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH182" s="2"/>
+      <c r="BI182" s="2"/>
+      <c r="BJ182" s="2"/>
+      <c r="BK182" s="2"/>
+    </row>
+    <row r="183" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -12742,8 +13575,12 @@
       <c r="BE183" s="2"/>
       <c r="BF183" s="2"/>
       <c r="BG183" s="2"/>
-    </row>
-    <row r="184" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH183" s="2"/>
+      <c r="BI183" s="2"/>
+      <c r="BJ183" s="2"/>
+      <c r="BK183" s="2"/>
+    </row>
+    <row r="184" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -12801,8 +13638,12 @@
       <c r="BE184" s="2"/>
       <c r="BF184" s="2"/>
       <c r="BG184" s="2"/>
-    </row>
-    <row r="185" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH184" s="2"/>
+      <c r="BI184" s="2"/>
+      <c r="BJ184" s="2"/>
+      <c r="BK184" s="2"/>
+    </row>
+    <row r="185" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -12860,8 +13701,12 @@
       <c r="BE185" s="2"/>
       <c r="BF185" s="2"/>
       <c r="BG185" s="2"/>
-    </row>
-    <row r="186" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH185" s="2"/>
+      <c r="BI185" s="2"/>
+      <c r="BJ185" s="2"/>
+      <c r="BK185" s="2"/>
+    </row>
+    <row r="186" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -12919,8 +13764,12 @@
       <c r="BE186" s="2"/>
       <c r="BF186" s="2"/>
       <c r="BG186" s="2"/>
-    </row>
-    <row r="187" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH186" s="2"/>
+      <c r="BI186" s="2"/>
+      <c r="BJ186" s="2"/>
+      <c r="BK186" s="2"/>
+    </row>
+    <row r="187" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -12978,8 +13827,12 @@
       <c r="BE187" s="2"/>
       <c r="BF187" s="2"/>
       <c r="BG187" s="2"/>
-    </row>
-    <row r="188" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH187" s="2"/>
+      <c r="BI187" s="2"/>
+      <c r="BJ187" s="2"/>
+      <c r="BK187" s="2"/>
+    </row>
+    <row r="188" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -13037,8 +13890,12 @@
       <c r="BE188" s="2"/>
       <c r="BF188" s="2"/>
       <c r="BG188" s="2"/>
-    </row>
-    <row r="189" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH188" s="2"/>
+      <c r="BI188" s="2"/>
+      <c r="BJ188" s="2"/>
+      <c r="BK188" s="2"/>
+    </row>
+    <row r="189" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -13096,8 +13953,12 @@
       <c r="BE189" s="2"/>
       <c r="BF189" s="2"/>
       <c r="BG189" s="2"/>
-    </row>
-    <row r="190" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH189" s="2"/>
+      <c r="BI189" s="2"/>
+      <c r="BJ189" s="2"/>
+      <c r="BK189" s="2"/>
+    </row>
+    <row r="190" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -13155,8 +14016,12 @@
       <c r="BE190" s="2"/>
       <c r="BF190" s="2"/>
       <c r="BG190" s="2"/>
-    </row>
-    <row r="191" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH190" s="2"/>
+      <c r="BI190" s="2"/>
+      <c r="BJ190" s="2"/>
+      <c r="BK190" s="2"/>
+    </row>
+    <row r="191" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -13214,8 +14079,12 @@
       <c r="BE191" s="2"/>
       <c r="BF191" s="2"/>
       <c r="BG191" s="2"/>
-    </row>
-    <row r="192" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH191" s="2"/>
+      <c r="BI191" s="2"/>
+      <c r="BJ191" s="2"/>
+      <c r="BK191" s="2"/>
+    </row>
+    <row r="192" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -13273,8 +14142,12 @@
       <c r="BE192" s="2"/>
       <c r="BF192" s="2"/>
       <c r="BG192" s="2"/>
-    </row>
-    <row r="193" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH192" s="2"/>
+      <c r="BI192" s="2"/>
+      <c r="BJ192" s="2"/>
+      <c r="BK192" s="2"/>
+    </row>
+    <row r="193" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -13332,8 +14205,12 @@
       <c r="BE193" s="2"/>
       <c r="BF193" s="2"/>
       <c r="BG193" s="2"/>
-    </row>
-    <row r="194" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH193" s="2"/>
+      <c r="BI193" s="2"/>
+      <c r="BJ193" s="2"/>
+      <c r="BK193" s="2"/>
+    </row>
+    <row r="194" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -13391,8 +14268,12 @@
       <c r="BE194" s="2"/>
       <c r="BF194" s="2"/>
       <c r="BG194" s="2"/>
-    </row>
-    <row r="195" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH194" s="2"/>
+      <c r="BI194" s="2"/>
+      <c r="BJ194" s="2"/>
+      <c r="BK194" s="2"/>
+    </row>
+    <row r="195" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -13450,8 +14331,12 @@
       <c r="BE195" s="2"/>
       <c r="BF195" s="2"/>
       <c r="BG195" s="2"/>
-    </row>
-    <row r="196" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH195" s="2"/>
+      <c r="BI195" s="2"/>
+      <c r="BJ195" s="2"/>
+      <c r="BK195" s="2"/>
+    </row>
+    <row r="196" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -13509,8 +14394,12 @@
       <c r="BE196" s="2"/>
       <c r="BF196" s="2"/>
       <c r="BG196" s="2"/>
-    </row>
-    <row r="197" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH196" s="2"/>
+      <c r="BI196" s="2"/>
+      <c r="BJ196" s="2"/>
+      <c r="BK196" s="2"/>
+    </row>
+    <row r="197" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -13568,8 +14457,12 @@
       <c r="BE197" s="2"/>
       <c r="BF197" s="2"/>
       <c r="BG197" s="2"/>
-    </row>
-    <row r="198" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH197" s="2"/>
+      <c r="BI197" s="2"/>
+      <c r="BJ197" s="2"/>
+      <c r="BK197" s="2"/>
+    </row>
+    <row r="198" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -13627,8 +14520,12 @@
       <c r="BE198" s="2"/>
       <c r="BF198" s="2"/>
       <c r="BG198" s="2"/>
-    </row>
-    <row r="199" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH198" s="2"/>
+      <c r="BI198" s="2"/>
+      <c r="BJ198" s="2"/>
+      <c r="BK198" s="2"/>
+    </row>
+    <row r="199" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -13686,8 +14583,12 @@
       <c r="BE199" s="2"/>
       <c r="BF199" s="2"/>
       <c r="BG199" s="2"/>
-    </row>
-    <row r="200" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH199" s="2"/>
+      <c r="BI199" s="2"/>
+      <c r="BJ199" s="2"/>
+      <c r="BK199" s="2"/>
+    </row>
+    <row r="200" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -13745,8 +14646,12 @@
       <c r="BE200" s="2"/>
       <c r="BF200" s="2"/>
       <c r="BG200" s="2"/>
-    </row>
-    <row r="201" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH200" s="2"/>
+      <c r="BI200" s="2"/>
+      <c r="BJ200" s="2"/>
+      <c r="BK200" s="2"/>
+    </row>
+    <row r="201" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -13804,8 +14709,12 @@
       <c r="BE201" s="2"/>
       <c r="BF201" s="2"/>
       <c r="BG201" s="2"/>
-    </row>
-    <row r="202" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH201" s="2"/>
+      <c r="BI201" s="2"/>
+      <c r="BJ201" s="2"/>
+      <c r="BK201" s="2"/>
+    </row>
+    <row r="202" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -13863,8 +14772,12 @@
       <c r="BE202" s="2"/>
       <c r="BF202" s="2"/>
       <c r="BG202" s="2"/>
-    </row>
-    <row r="203" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH202" s="2"/>
+      <c r="BI202" s="2"/>
+      <c r="BJ202" s="2"/>
+      <c r="BK202" s="2"/>
+    </row>
+    <row r="203" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -13922,8 +14835,12 @@
       <c r="BE203" s="2"/>
       <c r="BF203" s="2"/>
       <c r="BG203" s="2"/>
-    </row>
-    <row r="204" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH203" s="2"/>
+      <c r="BI203" s="2"/>
+      <c r="BJ203" s="2"/>
+      <c r="BK203" s="2"/>
+    </row>
+    <row r="204" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -13981,8 +14898,12 @@
       <c r="BE204" s="2"/>
       <c r="BF204" s="2"/>
       <c r="BG204" s="2"/>
-    </row>
-    <row r="205" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH204" s="2"/>
+      <c r="BI204" s="2"/>
+      <c r="BJ204" s="2"/>
+      <c r="BK204" s="2"/>
+    </row>
+    <row r="205" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -14040,8 +14961,12 @@
       <c r="BE205" s="2"/>
       <c r="BF205" s="2"/>
       <c r="BG205" s="2"/>
-    </row>
-    <row r="206" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH205" s="2"/>
+      <c r="BI205" s="2"/>
+      <c r="BJ205" s="2"/>
+      <c r="BK205" s="2"/>
+    </row>
+    <row r="206" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -14099,8 +15024,12 @@
       <c r="BE206" s="2"/>
       <c r="BF206" s="2"/>
       <c r="BG206" s="2"/>
-    </row>
-    <row r="207" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH206" s="2"/>
+      <c r="BI206" s="2"/>
+      <c r="BJ206" s="2"/>
+      <c r="BK206" s="2"/>
+    </row>
+    <row r="207" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -14158,8 +15087,12 @@
       <c r="BE207" s="2"/>
       <c r="BF207" s="2"/>
       <c r="BG207" s="2"/>
-    </row>
-    <row r="208" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH207" s="2"/>
+      <c r="BI207" s="2"/>
+      <c r="BJ207" s="2"/>
+      <c r="BK207" s="2"/>
+    </row>
+    <row r="208" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -14217,8 +15150,12 @@
       <c r="BE208" s="2"/>
       <c r="BF208" s="2"/>
       <c r="BG208" s="2"/>
-    </row>
-    <row r="209" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH208" s="2"/>
+      <c r="BI208" s="2"/>
+      <c r="BJ208" s="2"/>
+      <c r="BK208" s="2"/>
+    </row>
+    <row r="209" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -14276,8 +15213,12 @@
       <c r="BE209" s="2"/>
       <c r="BF209" s="2"/>
       <c r="BG209" s="2"/>
-    </row>
-    <row r="210" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH209" s="2"/>
+      <c r="BI209" s="2"/>
+      <c r="BJ209" s="2"/>
+      <c r="BK209" s="2"/>
+    </row>
+    <row r="210" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -14335,8 +15276,12 @@
       <c r="BE210" s="2"/>
       <c r="BF210" s="2"/>
       <c r="BG210" s="2"/>
-    </row>
-    <row r="211" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH210" s="2"/>
+      <c r="BI210" s="2"/>
+      <c r="BJ210" s="2"/>
+      <c r="BK210" s="2"/>
+    </row>
+    <row r="211" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -14394,8 +15339,12 @@
       <c r="BE211" s="2"/>
       <c r="BF211" s="2"/>
       <c r="BG211" s="2"/>
-    </row>
-    <row r="212" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH211" s="2"/>
+      <c r="BI211" s="2"/>
+      <c r="BJ211" s="2"/>
+      <c r="BK211" s="2"/>
+    </row>
+    <row r="212" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -14453,8 +15402,12 @@
       <c r="BE212" s="2"/>
       <c r="BF212" s="2"/>
       <c r="BG212" s="2"/>
-    </row>
-    <row r="213" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH212" s="2"/>
+      <c r="BI212" s="2"/>
+      <c r="BJ212" s="2"/>
+      <c r="BK212" s="2"/>
+    </row>
+    <row r="213" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -14512,8 +15465,12 @@
       <c r="BE213" s="2"/>
       <c r="BF213" s="2"/>
       <c r="BG213" s="2"/>
-    </row>
-    <row r="214" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH213" s="2"/>
+      <c r="BI213" s="2"/>
+      <c r="BJ213" s="2"/>
+      <c r="BK213" s="2"/>
+    </row>
+    <row r="214" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -14571,8 +15528,12 @@
       <c r="BE214" s="2"/>
       <c r="BF214" s="2"/>
       <c r="BG214" s="2"/>
-    </row>
-    <row r="215" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH214" s="2"/>
+      <c r="BI214" s="2"/>
+      <c r="BJ214" s="2"/>
+      <c r="BK214" s="2"/>
+    </row>
+    <row r="215" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -14630,8 +15591,12 @@
       <c r="BE215" s="2"/>
       <c r="BF215" s="2"/>
       <c r="BG215" s="2"/>
-    </row>
-    <row r="216" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH215" s="2"/>
+      <c r="BI215" s="2"/>
+      <c r="BJ215" s="2"/>
+      <c r="BK215" s="2"/>
+    </row>
+    <row r="216" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -14689,8 +15654,12 @@
       <c r="BE216" s="2"/>
       <c r="BF216" s="2"/>
       <c r="BG216" s="2"/>
-    </row>
-    <row r="217" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH216" s="2"/>
+      <c r="BI216" s="2"/>
+      <c r="BJ216" s="2"/>
+      <c r="BK216" s="2"/>
+    </row>
+    <row r="217" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -14748,8 +15717,12 @@
       <c r="BE217" s="2"/>
       <c r="BF217" s="2"/>
       <c r="BG217" s="2"/>
-    </row>
-    <row r="218" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH217" s="2"/>
+      <c r="BI217" s="2"/>
+      <c r="BJ217" s="2"/>
+      <c r="BK217" s="2"/>
+    </row>
+    <row r="218" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -14807,8 +15780,12 @@
       <c r="BE218" s="2"/>
       <c r="BF218" s="2"/>
       <c r="BG218" s="2"/>
-    </row>
-    <row r="219" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH218" s="2"/>
+      <c r="BI218" s="2"/>
+      <c r="BJ218" s="2"/>
+      <c r="BK218" s="2"/>
+    </row>
+    <row r="219" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -14866,8 +15843,12 @@
       <c r="BE219" s="2"/>
       <c r="BF219" s="2"/>
       <c r="BG219" s="2"/>
-    </row>
-    <row r="220" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH219" s="2"/>
+      <c r="BI219" s="2"/>
+      <c r="BJ219" s="2"/>
+      <c r="BK219" s="2"/>
+    </row>
+    <row r="220" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -14925,8 +15906,12 @@
       <c r="BE220" s="2"/>
       <c r="BF220" s="2"/>
       <c r="BG220" s="2"/>
-    </row>
-    <row r="221" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH220" s="2"/>
+      <c r="BI220" s="2"/>
+      <c r="BJ220" s="2"/>
+      <c r="BK220" s="2"/>
+    </row>
+    <row r="221" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -14984,8 +15969,12 @@
       <c r="BE221" s="2"/>
       <c r="BF221" s="2"/>
       <c r="BG221" s="2"/>
-    </row>
-    <row r="222" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH221" s="2"/>
+      <c r="BI221" s="2"/>
+      <c r="BJ221" s="2"/>
+      <c r="BK221" s="2"/>
+    </row>
+    <row r="222" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -15043,8 +16032,12 @@
       <c r="BE222" s="2"/>
       <c r="BF222" s="2"/>
       <c r="BG222" s="2"/>
-    </row>
-    <row r="223" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH222" s="2"/>
+      <c r="BI222" s="2"/>
+      <c r="BJ222" s="2"/>
+      <c r="BK222" s="2"/>
+    </row>
+    <row r="223" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -15102,8 +16095,12 @@
       <c r="BE223" s="2"/>
       <c r="BF223" s="2"/>
       <c r="BG223" s="2"/>
-    </row>
-    <row r="224" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH223" s="2"/>
+      <c r="BI223" s="2"/>
+      <c r="BJ223" s="2"/>
+      <c r="BK223" s="2"/>
+    </row>
+    <row r="224" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -15161,8 +16158,12 @@
       <c r="BE224" s="2"/>
       <c r="BF224" s="2"/>
       <c r="BG224" s="2"/>
-    </row>
-    <row r="225" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH224" s="2"/>
+      <c r="BI224" s="2"/>
+      <c r="BJ224" s="2"/>
+      <c r="BK224" s="2"/>
+    </row>
+    <row r="225" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -15220,8 +16221,12 @@
       <c r="BE225" s="2"/>
       <c r="BF225" s="2"/>
       <c r="BG225" s="2"/>
-    </row>
-    <row r="226" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH225" s="2"/>
+      <c r="BI225" s="2"/>
+      <c r="BJ225" s="2"/>
+      <c r="BK225" s="2"/>
+    </row>
+    <row r="226" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -15279,8 +16284,12 @@
       <c r="BE226" s="2"/>
       <c r="BF226" s="2"/>
       <c r="BG226" s="2"/>
-    </row>
-    <row r="227" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH226" s="2"/>
+      <c r="BI226" s="2"/>
+      <c r="BJ226" s="2"/>
+      <c r="BK226" s="2"/>
+    </row>
+    <row r="227" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -15338,8 +16347,12 @@
       <c r="BE227" s="2"/>
       <c r="BF227" s="2"/>
       <c r="BG227" s="2"/>
-    </row>
-    <row r="228" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH227" s="2"/>
+      <c r="BI227" s="2"/>
+      <c r="BJ227" s="2"/>
+      <c r="BK227" s="2"/>
+    </row>
+    <row r="228" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -15397,8 +16410,12 @@
       <c r="BE228" s="2"/>
       <c r="BF228" s="2"/>
       <c r="BG228" s="2"/>
-    </row>
-    <row r="229" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH228" s="2"/>
+      <c r="BI228" s="2"/>
+      <c r="BJ228" s="2"/>
+      <c r="BK228" s="2"/>
+    </row>
+    <row r="229" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -15456,8 +16473,12 @@
       <c r="BE229" s="2"/>
       <c r="BF229" s="2"/>
       <c r="BG229" s="2"/>
-    </row>
-    <row r="230" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH229" s="2"/>
+      <c r="BI229" s="2"/>
+      <c r="BJ229" s="2"/>
+      <c r="BK229" s="2"/>
+    </row>
+    <row r="230" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -15515,8 +16536,12 @@
       <c r="BE230" s="2"/>
       <c r="BF230" s="2"/>
       <c r="BG230" s="2"/>
-    </row>
-    <row r="231" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH230" s="2"/>
+      <c r="BI230" s="2"/>
+      <c r="BJ230" s="2"/>
+      <c r="BK230" s="2"/>
+    </row>
+    <row r="231" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -15574,8 +16599,12 @@
       <c r="BE231" s="2"/>
       <c r="BF231" s="2"/>
       <c r="BG231" s="2"/>
-    </row>
-    <row r="232" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH231" s="2"/>
+      <c r="BI231" s="2"/>
+      <c r="BJ231" s="2"/>
+      <c r="BK231" s="2"/>
+    </row>
+    <row r="232" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -15633,8 +16662,12 @@
       <c r="BE232" s="2"/>
       <c r="BF232" s="2"/>
       <c r="BG232" s="2"/>
-    </row>
-    <row r="233" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH232" s="2"/>
+      <c r="BI232" s="2"/>
+      <c r="BJ232" s="2"/>
+      <c r="BK232" s="2"/>
+    </row>
+    <row r="233" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -15692,8 +16725,12 @@
       <c r="BE233" s="2"/>
       <c r="BF233" s="2"/>
       <c r="BG233" s="2"/>
-    </row>
-    <row r="234" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH233" s="2"/>
+      <c r="BI233" s="2"/>
+      <c r="BJ233" s="2"/>
+      <c r="BK233" s="2"/>
+    </row>
+    <row r="234" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -15751,8 +16788,12 @@
       <c r="BE234" s="2"/>
       <c r="BF234" s="2"/>
       <c r="BG234" s="2"/>
-    </row>
-    <row r="235" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH234" s="2"/>
+      <c r="BI234" s="2"/>
+      <c r="BJ234" s="2"/>
+      <c r="BK234" s="2"/>
+    </row>
+    <row r="235" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -15810,8 +16851,12 @@
       <c r="BE235" s="2"/>
       <c r="BF235" s="2"/>
       <c r="BG235" s="2"/>
-    </row>
-    <row r="236" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH235" s="2"/>
+      <c r="BI235" s="2"/>
+      <c r="BJ235" s="2"/>
+      <c r="BK235" s="2"/>
+    </row>
+    <row r="236" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -15869,8 +16914,12 @@
       <c r="BE236" s="2"/>
       <c r="BF236" s="2"/>
       <c r="BG236" s="2"/>
-    </row>
-    <row r="237" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH236" s="2"/>
+      <c r="BI236" s="2"/>
+      <c r="BJ236" s="2"/>
+      <c r="BK236" s="2"/>
+    </row>
+    <row r="237" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -15928,8 +16977,12 @@
       <c r="BE237" s="2"/>
       <c r="BF237" s="2"/>
       <c r="BG237" s="2"/>
-    </row>
-    <row r="238" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH237" s="2"/>
+      <c r="BI237" s="2"/>
+      <c r="BJ237" s="2"/>
+      <c r="BK237" s="2"/>
+    </row>
+    <row r="238" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -15987,8 +17040,12 @@
       <c r="BE238" s="2"/>
       <c r="BF238" s="2"/>
       <c r="BG238" s="2"/>
-    </row>
-    <row r="239" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH238" s="2"/>
+      <c r="BI238" s="2"/>
+      <c r="BJ238" s="2"/>
+      <c r="BK238" s="2"/>
+    </row>
+    <row r="239" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -16046,8 +17103,12 @@
       <c r="BE239" s="2"/>
       <c r="BF239" s="2"/>
       <c r="BG239" s="2"/>
-    </row>
-    <row r="240" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH239" s="2"/>
+      <c r="BI239" s="2"/>
+      <c r="BJ239" s="2"/>
+      <c r="BK239" s="2"/>
+    </row>
+    <row r="240" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -16105,8 +17166,12 @@
       <c r="BE240" s="2"/>
       <c r="BF240" s="2"/>
       <c r="BG240" s="2"/>
-    </row>
-    <row r="241" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH240" s="2"/>
+      <c r="BI240" s="2"/>
+      <c r="BJ240" s="2"/>
+      <c r="BK240" s="2"/>
+    </row>
+    <row r="241" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -16164,8 +17229,12 @@
       <c r="BE241" s="2"/>
       <c r="BF241" s="2"/>
       <c r="BG241" s="2"/>
-    </row>
-    <row r="242" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH241" s="2"/>
+      <c r="BI241" s="2"/>
+      <c r="BJ241" s="2"/>
+      <c r="BK241" s="2"/>
+    </row>
+    <row r="242" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -16223,8 +17292,12 @@
       <c r="BE242" s="2"/>
       <c r="BF242" s="2"/>
       <c r="BG242" s="2"/>
-    </row>
-    <row r="243" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH242" s="2"/>
+      <c r="BI242" s="2"/>
+      <c r="BJ242" s="2"/>
+      <c r="BK242" s="2"/>
+    </row>
+    <row r="243" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -16282,8 +17355,12 @@
       <c r="BE243" s="2"/>
       <c r="BF243" s="2"/>
       <c r="BG243" s="2"/>
-    </row>
-    <row r="244" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH243" s="2"/>
+      <c r="BI243" s="2"/>
+      <c r="BJ243" s="2"/>
+      <c r="BK243" s="2"/>
+    </row>
+    <row r="244" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -16341,8 +17418,12 @@
       <c r="BE244" s="2"/>
       <c r="BF244" s="2"/>
       <c r="BG244" s="2"/>
-    </row>
-    <row r="245" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH244" s="2"/>
+      <c r="BI244" s="2"/>
+      <c r="BJ244" s="2"/>
+      <c r="BK244" s="2"/>
+    </row>
+    <row r="245" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -16400,8 +17481,12 @@
       <c r="BE245" s="2"/>
       <c r="BF245" s="2"/>
       <c r="BG245" s="2"/>
-    </row>
-    <row r="246" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH245" s="2"/>
+      <c r="BI245" s="2"/>
+      <c r="BJ245" s="2"/>
+      <c r="BK245" s="2"/>
+    </row>
+    <row r="246" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -16459,8 +17544,12 @@
       <c r="BE246" s="2"/>
       <c r="BF246" s="2"/>
       <c r="BG246" s="2"/>
-    </row>
-    <row r="247" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH246" s="2"/>
+      <c r="BI246" s="2"/>
+      <c r="BJ246" s="2"/>
+      <c r="BK246" s="2"/>
+    </row>
+    <row r="247" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -16518,8 +17607,12 @@
       <c r="BE247" s="2"/>
       <c r="BF247" s="2"/>
       <c r="BG247" s="2"/>
-    </row>
-    <row r="248" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH247" s="2"/>
+      <c r="BI247" s="2"/>
+      <c r="BJ247" s="2"/>
+      <c r="BK247" s="2"/>
+    </row>
+    <row r="248" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -16577,8 +17670,12 @@
       <c r="BE248" s="2"/>
       <c r="BF248" s="2"/>
       <c r="BG248" s="2"/>
-    </row>
-    <row r="249" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH248" s="2"/>
+      <c r="BI248" s="2"/>
+      <c r="BJ248" s="2"/>
+      <c r="BK248" s="2"/>
+    </row>
+    <row r="249" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -16636,8 +17733,12 @@
       <c r="BE249" s="2"/>
       <c r="BF249" s="2"/>
       <c r="BG249" s="2"/>
-    </row>
-    <row r="250" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH249" s="2"/>
+      <c r="BI249" s="2"/>
+      <c r="BJ249" s="2"/>
+      <c r="BK249" s="2"/>
+    </row>
+    <row r="250" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -16695,8 +17796,12 @@
       <c r="BE250" s="2"/>
       <c r="BF250" s="2"/>
       <c r="BG250" s="2"/>
-    </row>
-    <row r="251" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH250" s="2"/>
+      <c r="BI250" s="2"/>
+      <c r="BJ250" s="2"/>
+      <c r="BK250" s="2"/>
+    </row>
+    <row r="251" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -16754,8 +17859,12 @@
       <c r="BE251" s="2"/>
       <c r="BF251" s="2"/>
       <c r="BG251" s="2"/>
-    </row>
-    <row r="252" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH251" s="2"/>
+      <c r="BI251" s="2"/>
+      <c r="BJ251" s="2"/>
+      <c r="BK251" s="2"/>
+    </row>
+    <row r="252" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -16813,8 +17922,12 @@
       <c r="BE252" s="2"/>
       <c r="BF252" s="2"/>
       <c r="BG252" s="2"/>
-    </row>
-    <row r="253" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH252" s="2"/>
+      <c r="BI252" s="2"/>
+      <c r="BJ252" s="2"/>
+      <c r="BK252" s="2"/>
+    </row>
+    <row r="253" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -16872,8 +17985,12 @@
       <c r="BE253" s="2"/>
       <c r="BF253" s="2"/>
       <c r="BG253" s="2"/>
-    </row>
-    <row r="254" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH253" s="2"/>
+      <c r="BI253" s="2"/>
+      <c r="BJ253" s="2"/>
+      <c r="BK253" s="2"/>
+    </row>
+    <row r="254" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -16931,8 +18048,12 @@
       <c r="BE254" s="2"/>
       <c r="BF254" s="2"/>
       <c r="BG254" s="2"/>
-    </row>
-    <row r="255" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH254" s="2"/>
+      <c r="BI254" s="2"/>
+      <c r="BJ254" s="2"/>
+      <c r="BK254" s="2"/>
+    </row>
+    <row r="255" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -16990,8 +18111,12 @@
       <c r="BE255" s="2"/>
       <c r="BF255" s="2"/>
       <c r="BG255" s="2"/>
-    </row>
-    <row r="256" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH255" s="2"/>
+      <c r="BI255" s="2"/>
+      <c r="BJ255" s="2"/>
+      <c r="BK255" s="2"/>
+    </row>
+    <row r="256" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -17049,8 +18174,12 @@
       <c r="BE256" s="2"/>
       <c r="BF256" s="2"/>
       <c r="BG256" s="2"/>
-    </row>
-    <row r="257" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH256" s="2"/>
+      <c r="BI256" s="2"/>
+      <c r="BJ256" s="2"/>
+      <c r="BK256" s="2"/>
+    </row>
+    <row r="257" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -17108,8 +18237,12 @@
       <c r="BE257" s="2"/>
       <c r="BF257" s="2"/>
       <c r="BG257" s="2"/>
-    </row>
-    <row r="258" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH257" s="2"/>
+      <c r="BI257" s="2"/>
+      <c r="BJ257" s="2"/>
+      <c r="BK257" s="2"/>
+    </row>
+    <row r="258" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -17167,8 +18300,12 @@
       <c r="BE258" s="2"/>
       <c r="BF258" s="2"/>
       <c r="BG258" s="2"/>
-    </row>
-    <row r="259" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH258" s="2"/>
+      <c r="BI258" s="2"/>
+      <c r="BJ258" s="2"/>
+      <c r="BK258" s="2"/>
+    </row>
+    <row r="259" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -17226,8 +18363,12 @@
       <c r="BE259" s="2"/>
       <c r="BF259" s="2"/>
       <c r="BG259" s="2"/>
-    </row>
-    <row r="260" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH259" s="2"/>
+      <c r="BI259" s="2"/>
+      <c r="BJ259" s="2"/>
+      <c r="BK259" s="2"/>
+    </row>
+    <row r="260" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -17285,8 +18426,12 @@
       <c r="BE260" s="2"/>
       <c r="BF260" s="2"/>
       <c r="BG260" s="2"/>
-    </row>
-    <row r="261" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH260" s="2"/>
+      <c r="BI260" s="2"/>
+      <c r="BJ260" s="2"/>
+      <c r="BK260" s="2"/>
+    </row>
+    <row r="261" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -17344,8 +18489,12 @@
       <c r="BE261" s="2"/>
       <c r="BF261" s="2"/>
       <c r="BG261" s="2"/>
-    </row>
-    <row r="262" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH261" s="2"/>
+      <c r="BI261" s="2"/>
+      <c r="BJ261" s="2"/>
+      <c r="BK261" s="2"/>
+    </row>
+    <row r="262" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -17403,8 +18552,12 @@
       <c r="BE262" s="2"/>
       <c r="BF262" s="2"/>
       <c r="BG262" s="2"/>
-    </row>
-    <row r="263" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH262" s="2"/>
+      <c r="BI262" s="2"/>
+      <c r="BJ262" s="2"/>
+      <c r="BK262" s="2"/>
+    </row>
+    <row r="263" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -17462,8 +18615,12 @@
       <c r="BE263" s="2"/>
       <c r="BF263" s="2"/>
       <c r="BG263" s="2"/>
-    </row>
-    <row r="264" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH263" s="2"/>
+      <c r="BI263" s="2"/>
+      <c r="BJ263" s="2"/>
+      <c r="BK263" s="2"/>
+    </row>
+    <row r="264" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -17521,8 +18678,12 @@
       <c r="BE264" s="2"/>
       <c r="BF264" s="2"/>
       <c r="BG264" s="2"/>
-    </row>
-    <row r="265" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH264" s="2"/>
+      <c r="BI264" s="2"/>
+      <c r="BJ264" s="2"/>
+      <c r="BK264" s="2"/>
+    </row>
+    <row r="265" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -17580,8 +18741,12 @@
       <c r="BE265" s="2"/>
       <c r="BF265" s="2"/>
       <c r="BG265" s="2"/>
-    </row>
-    <row r="266" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH265" s="2"/>
+      <c r="BI265" s="2"/>
+      <c r="BJ265" s="2"/>
+      <c r="BK265" s="2"/>
+    </row>
+    <row r="266" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -17639,8 +18804,12 @@
       <c r="BE266" s="2"/>
       <c r="BF266" s="2"/>
       <c r="BG266" s="2"/>
-    </row>
-    <row r="267" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH266" s="2"/>
+      <c r="BI266" s="2"/>
+      <c r="BJ266" s="2"/>
+      <c r="BK266" s="2"/>
+    </row>
+    <row r="267" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -17698,8 +18867,12 @@
       <c r="BE267" s="2"/>
       <c r="BF267" s="2"/>
       <c r="BG267" s="2"/>
-    </row>
-    <row r="268" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH267" s="2"/>
+      <c r="BI267" s="2"/>
+      <c r="BJ267" s="2"/>
+      <c r="BK267" s="2"/>
+    </row>
+    <row r="268" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -17757,8 +18930,12 @@
       <c r="BE268" s="2"/>
       <c r="BF268" s="2"/>
       <c r="BG268" s="2"/>
-    </row>
-    <row r="269" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH268" s="2"/>
+      <c r="BI268" s="2"/>
+      <c r="BJ268" s="2"/>
+      <c r="BK268" s="2"/>
+    </row>
+    <row r="269" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -17816,8 +18993,12 @@
       <c r="BE269" s="2"/>
       <c r="BF269" s="2"/>
       <c r="BG269" s="2"/>
-    </row>
-    <row r="270" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH269" s="2"/>
+      <c r="BI269" s="2"/>
+      <c r="BJ269" s="2"/>
+      <c r="BK269" s="2"/>
+    </row>
+    <row r="270" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -17875,8 +19056,12 @@
       <c r="BE270" s="2"/>
       <c r="BF270" s="2"/>
       <c r="BG270" s="2"/>
-    </row>
-    <row r="271" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH270" s="2"/>
+      <c r="BI270" s="2"/>
+      <c r="BJ270" s="2"/>
+      <c r="BK270" s="2"/>
+    </row>
+    <row r="271" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -17934,8 +19119,12 @@
       <c r="BE271" s="2"/>
       <c r="BF271" s="2"/>
       <c r="BG271" s="2"/>
-    </row>
-    <row r="272" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH271" s="2"/>
+      <c r="BI271" s="2"/>
+      <c r="BJ271" s="2"/>
+      <c r="BK271" s="2"/>
+    </row>
+    <row r="272" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -17993,8 +19182,12 @@
       <c r="BE272" s="2"/>
       <c r="BF272" s="2"/>
       <c r="BG272" s="2"/>
-    </row>
-    <row r="273" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH272" s="2"/>
+      <c r="BI272" s="2"/>
+      <c r="BJ272" s="2"/>
+      <c r="BK272" s="2"/>
+    </row>
+    <row r="273" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -18052,8 +19245,12 @@
       <c r="BE273" s="2"/>
       <c r="BF273" s="2"/>
       <c r="BG273" s="2"/>
-    </row>
-    <row r="274" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH273" s="2"/>
+      <c r="BI273" s="2"/>
+      <c r="BJ273" s="2"/>
+      <c r="BK273" s="2"/>
+    </row>
+    <row r="274" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -18111,8 +19308,12 @@
       <c r="BE274" s="2"/>
       <c r="BF274" s="2"/>
       <c r="BG274" s="2"/>
-    </row>
-    <row r="275" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH274" s="2"/>
+      <c r="BI274" s="2"/>
+      <c r="BJ274" s="2"/>
+      <c r="BK274" s="2"/>
+    </row>
+    <row r="275" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -18170,8 +19371,12 @@
       <c r="BE275" s="2"/>
       <c r="BF275" s="2"/>
       <c r="BG275" s="2"/>
-    </row>
-    <row r="276" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH275" s="2"/>
+      <c r="BI275" s="2"/>
+      <c r="BJ275" s="2"/>
+      <c r="BK275" s="2"/>
+    </row>
+    <row r="276" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -18229,8 +19434,12 @@
       <c r="BE276" s="2"/>
       <c r="BF276" s="2"/>
       <c r="BG276" s="2"/>
-    </row>
-    <row r="277" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH276" s="2"/>
+      <c r="BI276" s="2"/>
+      <c r="BJ276" s="2"/>
+      <c r="BK276" s="2"/>
+    </row>
+    <row r="277" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -18288,8 +19497,12 @@
       <c r="BE277" s="2"/>
       <c r="BF277" s="2"/>
       <c r="BG277" s="2"/>
-    </row>
-    <row r="278" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH277" s="2"/>
+      <c r="BI277" s="2"/>
+      <c r="BJ277" s="2"/>
+      <c r="BK277" s="2"/>
+    </row>
+    <row r="278" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -18347,8 +19560,12 @@
       <c r="BE278" s="2"/>
       <c r="BF278" s="2"/>
       <c r="BG278" s="2"/>
-    </row>
-    <row r="279" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH278" s="2"/>
+      <c r="BI278" s="2"/>
+      <c r="BJ278" s="2"/>
+      <c r="BK278" s="2"/>
+    </row>
+    <row r="279" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -18406,8 +19623,12 @@
       <c r="BE279" s="2"/>
       <c r="BF279" s="2"/>
       <c r="BG279" s="2"/>
-    </row>
-    <row r="280" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH279" s="2"/>
+      <c r="BI279" s="2"/>
+      <c r="BJ279" s="2"/>
+      <c r="BK279" s="2"/>
+    </row>
+    <row r="280" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -18465,8 +19686,12 @@
       <c r="BE280" s="2"/>
       <c r="BF280" s="2"/>
       <c r="BG280" s="2"/>
-    </row>
-    <row r="281" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH280" s="2"/>
+      <c r="BI280" s="2"/>
+      <c r="BJ280" s="2"/>
+      <c r="BK280" s="2"/>
+    </row>
+    <row r="281" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -18524,8 +19749,12 @@
       <c r="BE281" s="2"/>
       <c r="BF281" s="2"/>
       <c r="BG281" s="2"/>
-    </row>
-    <row r="282" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH281" s="2"/>
+      <c r="BI281" s="2"/>
+      <c r="BJ281" s="2"/>
+      <c r="BK281" s="2"/>
+    </row>
+    <row r="282" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -18583,8 +19812,12 @@
       <c r="BE282" s="2"/>
       <c r="BF282" s="2"/>
       <c r="BG282" s="2"/>
-    </row>
-    <row r="283" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH282" s="2"/>
+      <c r="BI282" s="2"/>
+      <c r="BJ282" s="2"/>
+      <c r="BK282" s="2"/>
+    </row>
+    <row r="283" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -18642,8 +19875,12 @@
       <c r="BE283" s="2"/>
       <c r="BF283" s="2"/>
       <c r="BG283" s="2"/>
-    </row>
-    <row r="284" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH283" s="2"/>
+      <c r="BI283" s="2"/>
+      <c r="BJ283" s="2"/>
+      <c r="BK283" s="2"/>
+    </row>
+    <row r="284" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -18701,8 +19938,12 @@
       <c r="BE284" s="2"/>
       <c r="BF284" s="2"/>
       <c r="BG284" s="2"/>
-    </row>
-    <row r="285" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH284" s="2"/>
+      <c r="BI284" s="2"/>
+      <c r="BJ284" s="2"/>
+      <c r="BK284" s="2"/>
+    </row>
+    <row r="285" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -18760,8 +20001,12 @@
       <c r="BE285" s="2"/>
       <c r="BF285" s="2"/>
       <c r="BG285" s="2"/>
-    </row>
-    <row r="286" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH285" s="2"/>
+      <c r="BI285" s="2"/>
+      <c r="BJ285" s="2"/>
+      <c r="BK285" s="2"/>
+    </row>
+    <row r="286" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -18819,8 +20064,12 @@
       <c r="BE286" s="2"/>
       <c r="BF286" s="2"/>
       <c r="BG286" s="2"/>
-    </row>
-    <row r="287" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH286" s="2"/>
+      <c r="BI286" s="2"/>
+      <c r="BJ286" s="2"/>
+      <c r="BK286" s="2"/>
+    </row>
+    <row r="287" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -18878,8 +20127,12 @@
       <c r="BE287" s="2"/>
       <c r="BF287" s="2"/>
       <c r="BG287" s="2"/>
-    </row>
-    <row r="288" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH287" s="2"/>
+      <c r="BI287" s="2"/>
+      <c r="BJ287" s="2"/>
+      <c r="BK287" s="2"/>
+    </row>
+    <row r="288" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -18937,8 +20190,12 @@
       <c r="BE288" s="2"/>
       <c r="BF288" s="2"/>
       <c r="BG288" s="2"/>
-    </row>
-    <row r="289" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH288" s="2"/>
+      <c r="BI288" s="2"/>
+      <c r="BJ288" s="2"/>
+      <c r="BK288" s="2"/>
+    </row>
+    <row r="289" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -18996,8 +20253,12 @@
       <c r="BE289" s="2"/>
       <c r="BF289" s="2"/>
       <c r="BG289" s="2"/>
-    </row>
-    <row r="290" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH289" s="2"/>
+      <c r="BI289" s="2"/>
+      <c r="BJ289" s="2"/>
+      <c r="BK289" s="2"/>
+    </row>
+    <row r="290" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -19055,8 +20316,12 @@
       <c r="BE290" s="2"/>
       <c r="BF290" s="2"/>
       <c r="BG290" s="2"/>
-    </row>
-    <row r="291" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH290" s="2"/>
+      <c r="BI290" s="2"/>
+      <c r="BJ290" s="2"/>
+      <c r="BK290" s="2"/>
+    </row>
+    <row r="291" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -19114,8 +20379,12 @@
       <c r="BE291" s="2"/>
       <c r="BF291" s="2"/>
       <c r="BG291" s="2"/>
-    </row>
-    <row r="292" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH291" s="2"/>
+      <c r="BI291" s="2"/>
+      <c r="BJ291" s="2"/>
+      <c r="BK291" s="2"/>
+    </row>
+    <row r="292" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -19173,8 +20442,12 @@
       <c r="BE292" s="2"/>
       <c r="BF292" s="2"/>
       <c r="BG292" s="2"/>
-    </row>
-    <row r="293" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH292" s="2"/>
+      <c r="BI292" s="2"/>
+      <c r="BJ292" s="2"/>
+      <c r="BK292" s="2"/>
+    </row>
+    <row r="293" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -19232,8 +20505,12 @@
       <c r="BE293" s="2"/>
       <c r="BF293" s="2"/>
       <c r="BG293" s="2"/>
-    </row>
-    <row r="294" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH293" s="2"/>
+      <c r="BI293" s="2"/>
+      <c r="BJ293" s="2"/>
+      <c r="BK293" s="2"/>
+    </row>
+    <row r="294" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -19291,8 +20568,12 @@
       <c r="BE294" s="2"/>
       <c r="BF294" s="2"/>
       <c r="BG294" s="2"/>
-    </row>
-    <row r="295" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH294" s="2"/>
+      <c r="BI294" s="2"/>
+      <c r="BJ294" s="2"/>
+      <c r="BK294" s="2"/>
+    </row>
+    <row r="295" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -19350,8 +20631,12 @@
       <c r="BE295" s="2"/>
       <c r="BF295" s="2"/>
       <c r="BG295" s="2"/>
-    </row>
-    <row r="296" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH295" s="2"/>
+      <c r="BI295" s="2"/>
+      <c r="BJ295" s="2"/>
+      <c r="BK295" s="2"/>
+    </row>
+    <row r="296" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -19409,8 +20694,12 @@
       <c r="BE296" s="2"/>
       <c r="BF296" s="2"/>
       <c r="BG296" s="2"/>
-    </row>
-    <row r="297" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH296" s="2"/>
+      <c r="BI296" s="2"/>
+      <c r="BJ296" s="2"/>
+      <c r="BK296" s="2"/>
+    </row>
+    <row r="297" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -19468,8 +20757,12 @@
       <c r="BE297" s="2"/>
       <c r="BF297" s="2"/>
       <c r="BG297" s="2"/>
-    </row>
-    <row r="298" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH297" s="2"/>
+      <c r="BI297" s="2"/>
+      <c r="BJ297" s="2"/>
+      <c r="BK297" s="2"/>
+    </row>
+    <row r="298" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -19527,8 +20820,12 @@
       <c r="BE298" s="2"/>
       <c r="BF298" s="2"/>
       <c r="BG298" s="2"/>
-    </row>
-    <row r="299" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH298" s="2"/>
+      <c r="BI298" s="2"/>
+      <c r="BJ298" s="2"/>
+      <c r="BK298" s="2"/>
+    </row>
+    <row r="299" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -19586,8 +20883,12 @@
       <c r="BE299" s="2"/>
       <c r="BF299" s="2"/>
       <c r="BG299" s="2"/>
-    </row>
-    <row r="300" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH299" s="2"/>
+      <c r="BI299" s="2"/>
+      <c r="BJ299" s="2"/>
+      <c r="BK299" s="2"/>
+    </row>
+    <row r="300" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -19645,8 +20946,12 @@
       <c r="BE300" s="2"/>
       <c r="BF300" s="2"/>
       <c r="BG300" s="2"/>
-    </row>
-    <row r="301" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH300" s="2"/>
+      <c r="BI300" s="2"/>
+      <c r="BJ300" s="2"/>
+      <c r="BK300" s="2"/>
+    </row>
+    <row r="301" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -19704,8 +21009,12 @@
       <c r="BE301" s="2"/>
       <c r="BF301" s="2"/>
       <c r="BG301" s="2"/>
-    </row>
-    <row r="302" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH301" s="2"/>
+      <c r="BI301" s="2"/>
+      <c r="BJ301" s="2"/>
+      <c r="BK301" s="2"/>
+    </row>
+    <row r="302" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -19763,8 +21072,12 @@
       <c r="BE302" s="2"/>
       <c r="BF302" s="2"/>
       <c r="BG302" s="2"/>
-    </row>
-    <row r="303" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH302" s="2"/>
+      <c r="BI302" s="2"/>
+      <c r="BJ302" s="2"/>
+      <c r="BK302" s="2"/>
+    </row>
+    <row r="303" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -19822,8 +21135,12 @@
       <c r="BE303" s="2"/>
       <c r="BF303" s="2"/>
       <c r="BG303" s="2"/>
-    </row>
-    <row r="304" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH303" s="2"/>
+      <c r="BI303" s="2"/>
+      <c r="BJ303" s="2"/>
+      <c r="BK303" s="2"/>
+    </row>
+    <row r="304" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -19881,8 +21198,12 @@
       <c r="BE304" s="2"/>
       <c r="BF304" s="2"/>
       <c r="BG304" s="2"/>
-    </row>
-    <row r="305" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH304" s="2"/>
+      <c r="BI304" s="2"/>
+      <c r="BJ304" s="2"/>
+      <c r="BK304" s="2"/>
+    </row>
+    <row r="305" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -19940,8 +21261,12 @@
       <c r="BE305" s="2"/>
       <c r="BF305" s="2"/>
       <c r="BG305" s="2"/>
-    </row>
-    <row r="306" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH305" s="2"/>
+      <c r="BI305" s="2"/>
+      <c r="BJ305" s="2"/>
+      <c r="BK305" s="2"/>
+    </row>
+    <row r="306" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -19999,8 +21324,12 @@
       <c r="BE306" s="2"/>
       <c r="BF306" s="2"/>
       <c r="BG306" s="2"/>
-    </row>
-    <row r="307" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH306" s="2"/>
+      <c r="BI306" s="2"/>
+      <c r="BJ306" s="2"/>
+      <c r="BK306" s="2"/>
+    </row>
+    <row r="307" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -20058,8 +21387,12 @@
       <c r="BE307" s="2"/>
       <c r="BF307" s="2"/>
       <c r="BG307" s="2"/>
-    </row>
-    <row r="308" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH307" s="2"/>
+      <c r="BI307" s="2"/>
+      <c r="BJ307" s="2"/>
+      <c r="BK307" s="2"/>
+    </row>
+    <row r="308" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -20117,8 +21450,12 @@
       <c r="BE308" s="2"/>
       <c r="BF308" s="2"/>
       <c r="BG308" s="2"/>
-    </row>
-    <row r="309" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH308" s="2"/>
+      <c r="BI308" s="2"/>
+      <c r="BJ308" s="2"/>
+      <c r="BK308" s="2"/>
+    </row>
+    <row r="309" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -20176,8 +21513,12 @@
       <c r="BE309" s="2"/>
       <c r="BF309" s="2"/>
       <c r="BG309" s="2"/>
-    </row>
-    <row r="310" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH309" s="2"/>
+      <c r="BI309" s="2"/>
+      <c r="BJ309" s="2"/>
+      <c r="BK309" s="2"/>
+    </row>
+    <row r="310" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -20235,8 +21576,12 @@
       <c r="BE310" s="2"/>
       <c r="BF310" s="2"/>
       <c r="BG310" s="2"/>
-    </row>
-    <row r="311" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH310" s="2"/>
+      <c r="BI310" s="2"/>
+      <c r="BJ310" s="2"/>
+      <c r="BK310" s="2"/>
+    </row>
+    <row r="311" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -20294,8 +21639,12 @@
       <c r="BE311" s="2"/>
       <c r="BF311" s="2"/>
       <c r="BG311" s="2"/>
-    </row>
-    <row r="312" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH311" s="2"/>
+      <c r="BI311" s="2"/>
+      <c r="BJ311" s="2"/>
+      <c r="BK311" s="2"/>
+    </row>
+    <row r="312" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -20353,8 +21702,12 @@
       <c r="BE312" s="2"/>
       <c r="BF312" s="2"/>
       <c r="BG312" s="2"/>
-    </row>
-    <row r="313" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH312" s="2"/>
+      <c r="BI312" s="2"/>
+      <c r="BJ312" s="2"/>
+      <c r="BK312" s="2"/>
+    </row>
+    <row r="313" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -20412,8 +21765,12 @@
       <c r="BE313" s="2"/>
       <c r="BF313" s="2"/>
       <c r="BG313" s="2"/>
-    </row>
-    <row r="314" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH313" s="2"/>
+      <c r="BI313" s="2"/>
+      <c r="BJ313" s="2"/>
+      <c r="BK313" s="2"/>
+    </row>
+    <row r="314" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -20471,8 +21828,12 @@
       <c r="BE314" s="2"/>
       <c r="BF314" s="2"/>
       <c r="BG314" s="2"/>
-    </row>
-    <row r="315" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH314" s="2"/>
+      <c r="BI314" s="2"/>
+      <c r="BJ314" s="2"/>
+      <c r="BK314" s="2"/>
+    </row>
+    <row r="315" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -20530,8 +21891,12 @@
       <c r="BE315" s="2"/>
       <c r="BF315" s="2"/>
       <c r="BG315" s="2"/>
-    </row>
-    <row r="316" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH315" s="2"/>
+      <c r="BI315" s="2"/>
+      <c r="BJ315" s="2"/>
+      <c r="BK315" s="2"/>
+    </row>
+    <row r="316" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -20589,8 +21954,12 @@
       <c r="BE316" s="2"/>
       <c r="BF316" s="2"/>
       <c r="BG316" s="2"/>
-    </row>
-    <row r="317" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH316" s="2"/>
+      <c r="BI316" s="2"/>
+      <c r="BJ316" s="2"/>
+      <c r="BK316" s="2"/>
+    </row>
+    <row r="317" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -20648,8 +22017,12 @@
       <c r="BE317" s="2"/>
       <c r="BF317" s="2"/>
       <c r="BG317" s="2"/>
-    </row>
-    <row r="318" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH317" s="2"/>
+      <c r="BI317" s="2"/>
+      <c r="BJ317" s="2"/>
+      <c r="BK317" s="2"/>
+    </row>
+    <row r="318" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -20707,8 +22080,12 @@
       <c r="BE318" s="2"/>
       <c r="BF318" s="2"/>
       <c r="BG318" s="2"/>
-    </row>
-    <row r="319" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH318" s="2"/>
+      <c r="BI318" s="2"/>
+      <c r="BJ318" s="2"/>
+      <c r="BK318" s="2"/>
+    </row>
+    <row r="319" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -20766,8 +22143,12 @@
       <c r="BE319" s="2"/>
       <c r="BF319" s="2"/>
       <c r="BG319" s="2"/>
-    </row>
-    <row r="320" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH319" s="2"/>
+      <c r="BI319" s="2"/>
+      <c r="BJ319" s="2"/>
+      <c r="BK319" s="2"/>
+    </row>
+    <row r="320" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -20825,8 +22206,12 @@
       <c r="BE320" s="2"/>
       <c r="BF320" s="2"/>
       <c r="BG320" s="2"/>
-    </row>
-    <row r="321" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH320" s="2"/>
+      <c r="BI320" s="2"/>
+      <c r="BJ320" s="2"/>
+      <c r="BK320" s="2"/>
+    </row>
+    <row r="321" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -20884,8 +22269,12 @@
       <c r="BE321" s="2"/>
       <c r="BF321" s="2"/>
       <c r="BG321" s="2"/>
-    </row>
-    <row r="322" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH321" s="2"/>
+      <c r="BI321" s="2"/>
+      <c r="BJ321" s="2"/>
+      <c r="BK321" s="2"/>
+    </row>
+    <row r="322" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -20943,8 +22332,12 @@
       <c r="BE322" s="2"/>
       <c r="BF322" s="2"/>
       <c r="BG322" s="2"/>
-    </row>
-    <row r="323" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH322" s="2"/>
+      <c r="BI322" s="2"/>
+      <c r="BJ322" s="2"/>
+      <c r="BK322" s="2"/>
+    </row>
+    <row r="323" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -21002,8 +22395,12 @@
       <c r="BE323" s="2"/>
       <c r="BF323" s="2"/>
       <c r="BG323" s="2"/>
-    </row>
-    <row r="324" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH323" s="2"/>
+      <c r="BI323" s="2"/>
+      <c r="BJ323" s="2"/>
+      <c r="BK323" s="2"/>
+    </row>
+    <row r="324" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -21061,8 +22458,12 @@
       <c r="BE324" s="2"/>
       <c r="BF324" s="2"/>
       <c r="BG324" s="2"/>
-    </row>
-    <row r="325" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH324" s="2"/>
+      <c r="BI324" s="2"/>
+      <c r="BJ324" s="2"/>
+      <c r="BK324" s="2"/>
+    </row>
+    <row r="325" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -21120,8 +22521,12 @@
       <c r="BE325" s="2"/>
       <c r="BF325" s="2"/>
       <c r="BG325" s="2"/>
-    </row>
-    <row r="326" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH325" s="2"/>
+      <c r="BI325" s="2"/>
+      <c r="BJ325" s="2"/>
+      <c r="BK325" s="2"/>
+    </row>
+    <row r="326" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -21179,8 +22584,12 @@
       <c r="BE326" s="2"/>
       <c r="BF326" s="2"/>
       <c r="BG326" s="2"/>
-    </row>
-    <row r="327" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH326" s="2"/>
+      <c r="BI326" s="2"/>
+      <c r="BJ326" s="2"/>
+      <c r="BK326" s="2"/>
+    </row>
+    <row r="327" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -21238,8 +22647,12 @@
       <c r="BE327" s="2"/>
       <c r="BF327" s="2"/>
       <c r="BG327" s="2"/>
-    </row>
-    <row r="328" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH327" s="2"/>
+      <c r="BI327" s="2"/>
+      <c r="BJ327" s="2"/>
+      <c r="BK327" s="2"/>
+    </row>
+    <row r="328" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -21297,8 +22710,12 @@
       <c r="BE328" s="2"/>
       <c r="BF328" s="2"/>
       <c r="BG328" s="2"/>
-    </row>
-    <row r="329" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH328" s="2"/>
+      <c r="BI328" s="2"/>
+      <c r="BJ328" s="2"/>
+      <c r="BK328" s="2"/>
+    </row>
+    <row r="329" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -21356,8 +22773,12 @@
       <c r="BE329" s="2"/>
       <c r="BF329" s="2"/>
       <c r="BG329" s="2"/>
-    </row>
-    <row r="330" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH329" s="2"/>
+      <c r="BI329" s="2"/>
+      <c r="BJ329" s="2"/>
+      <c r="BK329" s="2"/>
+    </row>
+    <row r="330" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -21415,8 +22836,12 @@
       <c r="BE330" s="2"/>
       <c r="BF330" s="2"/>
       <c r="BG330" s="2"/>
-    </row>
-    <row r="331" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH330" s="2"/>
+      <c r="BI330" s="2"/>
+      <c r="BJ330" s="2"/>
+      <c r="BK330" s="2"/>
+    </row>
+    <row r="331" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -21474,8 +22899,12 @@
       <c r="BE331" s="2"/>
       <c r="BF331" s="2"/>
       <c r="BG331" s="2"/>
-    </row>
-    <row r="332" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH331" s="2"/>
+      <c r="BI331" s="2"/>
+      <c r="BJ331" s="2"/>
+      <c r="BK331" s="2"/>
+    </row>
+    <row r="332" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -21533,8 +22962,12 @@
       <c r="BE332" s="2"/>
       <c r="BF332" s="2"/>
       <c r="BG332" s="2"/>
-    </row>
-    <row r="333" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH332" s="2"/>
+      <c r="BI332" s="2"/>
+      <c r="BJ332" s="2"/>
+      <c r="BK332" s="2"/>
+    </row>
+    <row r="333" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -21592,8 +23025,12 @@
       <c r="BE333" s="2"/>
       <c r="BF333" s="2"/>
       <c r="BG333" s="2"/>
-    </row>
-    <row r="334" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH333" s="2"/>
+      <c r="BI333" s="2"/>
+      <c r="BJ333" s="2"/>
+      <c r="BK333" s="2"/>
+    </row>
+    <row r="334" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -21651,8 +23088,12 @@
       <c r="BE334" s="2"/>
       <c r="BF334" s="2"/>
       <c r="BG334" s="2"/>
-    </row>
-    <row r="335" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH334" s="2"/>
+      <c r="BI334" s="2"/>
+      <c r="BJ334" s="2"/>
+      <c r="BK334" s="2"/>
+    </row>
+    <row r="335" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -21710,8 +23151,12 @@
       <c r="BE335" s="2"/>
       <c r="BF335" s="2"/>
       <c r="BG335" s="2"/>
-    </row>
-    <row r="336" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH335" s="2"/>
+      <c r="BI335" s="2"/>
+      <c r="BJ335" s="2"/>
+      <c r="BK335" s="2"/>
+    </row>
+    <row r="336" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -21769,8 +23214,12 @@
       <c r="BE336" s="2"/>
       <c r="BF336" s="2"/>
       <c r="BG336" s="2"/>
-    </row>
-    <row r="337" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH336" s="2"/>
+      <c r="BI336" s="2"/>
+      <c r="BJ336" s="2"/>
+      <c r="BK336" s="2"/>
+    </row>
+    <row r="337" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -21828,8 +23277,12 @@
       <c r="BE337" s="2"/>
       <c r="BF337" s="2"/>
       <c r="BG337" s="2"/>
-    </row>
-    <row r="338" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH337" s="2"/>
+      <c r="BI337" s="2"/>
+      <c r="BJ337" s="2"/>
+      <c r="BK337" s="2"/>
+    </row>
+    <row r="338" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -21887,8 +23340,12 @@
       <c r="BE338" s="2"/>
       <c r="BF338" s="2"/>
       <c r="BG338" s="2"/>
-    </row>
-    <row r="339" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH338" s="2"/>
+      <c r="BI338" s="2"/>
+      <c r="BJ338" s="2"/>
+      <c r="BK338" s="2"/>
+    </row>
+    <row r="339" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -21946,8 +23403,12 @@
       <c r="BE339" s="2"/>
       <c r="BF339" s="2"/>
       <c r="BG339" s="2"/>
-    </row>
-    <row r="340" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH339" s="2"/>
+      <c r="BI339" s="2"/>
+      <c r="BJ339" s="2"/>
+      <c r="BK339" s="2"/>
+    </row>
+    <row r="340" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -22005,8 +23466,12 @@
       <c r="BE340" s="2"/>
       <c r="BF340" s="2"/>
       <c r="BG340" s="2"/>
-    </row>
-    <row r="341" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH340" s="2"/>
+      <c r="BI340" s="2"/>
+      <c r="BJ340" s="2"/>
+      <c r="BK340" s="2"/>
+    </row>
+    <row r="341" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -22064,8 +23529,12 @@
       <c r="BE341" s="2"/>
       <c r="BF341" s="2"/>
       <c r="BG341" s="2"/>
-    </row>
-    <row r="342" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH341" s="2"/>
+      <c r="BI341" s="2"/>
+      <c r="BJ341" s="2"/>
+      <c r="BK341" s="2"/>
+    </row>
+    <row r="342" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -22123,8 +23592,12 @@
       <c r="BE342" s="2"/>
       <c r="BF342" s="2"/>
       <c r="BG342" s="2"/>
-    </row>
-    <row r="343" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH342" s="2"/>
+      <c r="BI342" s="2"/>
+      <c r="BJ342" s="2"/>
+      <c r="BK342" s="2"/>
+    </row>
+    <row r="343" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -22182,8 +23655,12 @@
       <c r="BE343" s="2"/>
       <c r="BF343" s="2"/>
       <c r="BG343" s="2"/>
-    </row>
-    <row r="344" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH343" s="2"/>
+      <c r="BI343" s="2"/>
+      <c r="BJ343" s="2"/>
+      <c r="BK343" s="2"/>
+    </row>
+    <row r="344" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -22241,8 +23718,12 @@
       <c r="BE344" s="2"/>
       <c r="BF344" s="2"/>
       <c r="BG344" s="2"/>
-    </row>
-    <row r="345" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH344" s="2"/>
+      <c r="BI344" s="2"/>
+      <c r="BJ344" s="2"/>
+      <c r="BK344" s="2"/>
+    </row>
+    <row r="345" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -22300,8 +23781,12 @@
       <c r="BE345" s="2"/>
       <c r="BF345" s="2"/>
       <c r="BG345" s="2"/>
-    </row>
-    <row r="346" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH345" s="2"/>
+      <c r="BI345" s="2"/>
+      <c r="BJ345" s="2"/>
+      <c r="BK345" s="2"/>
+    </row>
+    <row r="346" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -22359,8 +23844,12 @@
       <c r="BE346" s="2"/>
       <c r="BF346" s="2"/>
       <c r="BG346" s="2"/>
-    </row>
-    <row r="347" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH346" s="2"/>
+      <c r="BI346" s="2"/>
+      <c r="BJ346" s="2"/>
+      <c r="BK346" s="2"/>
+    </row>
+    <row r="347" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -22418,8 +23907,12 @@
       <c r="BE347" s="2"/>
       <c r="BF347" s="2"/>
       <c r="BG347" s="2"/>
-    </row>
-    <row r="348" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH347" s="2"/>
+      <c r="BI347" s="2"/>
+      <c r="BJ347" s="2"/>
+      <c r="BK347" s="2"/>
+    </row>
+    <row r="348" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -22477,8 +23970,12 @@
       <c r="BE348" s="2"/>
       <c r="BF348" s="2"/>
       <c r="BG348" s="2"/>
-    </row>
-    <row r="349" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH348" s="2"/>
+      <c r="BI348" s="2"/>
+      <c r="BJ348" s="2"/>
+      <c r="BK348" s="2"/>
+    </row>
+    <row r="349" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -22536,8 +24033,12 @@
       <c r="BE349" s="2"/>
       <c r="BF349" s="2"/>
       <c r="BG349" s="2"/>
-    </row>
-    <row r="350" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH349" s="2"/>
+      <c r="BI349" s="2"/>
+      <c r="BJ349" s="2"/>
+      <c r="BK349" s="2"/>
+    </row>
+    <row r="350" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -22595,8 +24096,12 @@
       <c r="BE350" s="2"/>
       <c r="BF350" s="2"/>
       <c r="BG350" s="2"/>
-    </row>
-    <row r="351" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH350" s="2"/>
+      <c r="BI350" s="2"/>
+      <c r="BJ350" s="2"/>
+      <c r="BK350" s="2"/>
+    </row>
+    <row r="351" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -22654,8 +24159,12 @@
       <c r="BE351" s="2"/>
       <c r="BF351" s="2"/>
       <c r="BG351" s="2"/>
-    </row>
-    <row r="352" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH351" s="2"/>
+      <c r="BI351" s="2"/>
+      <c r="BJ351" s="2"/>
+      <c r="BK351" s="2"/>
+    </row>
+    <row r="352" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -22713,8 +24222,12 @@
       <c r="BE352" s="2"/>
       <c r="BF352" s="2"/>
       <c r="BG352" s="2"/>
-    </row>
-    <row r="353" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH352" s="2"/>
+      <c r="BI352" s="2"/>
+      <c r="BJ352" s="2"/>
+      <c r="BK352" s="2"/>
+    </row>
+    <row r="353" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -22772,8 +24285,12 @@
       <c r="BE353" s="2"/>
       <c r="BF353" s="2"/>
       <c r="BG353" s="2"/>
-    </row>
-    <row r="354" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH353" s="2"/>
+      <c r="BI353" s="2"/>
+      <c r="BJ353" s="2"/>
+      <c r="BK353" s="2"/>
+    </row>
+    <row r="354" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -22831,8 +24348,12 @@
       <c r="BE354" s="2"/>
       <c r="BF354" s="2"/>
       <c r="BG354" s="2"/>
-    </row>
-    <row r="355" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH354" s="2"/>
+      <c r="BI354" s="2"/>
+      <c r="BJ354" s="2"/>
+      <c r="BK354" s="2"/>
+    </row>
+    <row r="355" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -22890,8 +24411,12 @@
       <c r="BE355" s="2"/>
       <c r="BF355" s="2"/>
       <c r="BG355" s="2"/>
-    </row>
-    <row r="356" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH355" s="2"/>
+      <c r="BI355" s="2"/>
+      <c r="BJ355" s="2"/>
+      <c r="BK355" s="2"/>
+    </row>
+    <row r="356" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -22949,8 +24474,12 @@
       <c r="BE356" s="2"/>
       <c r="BF356" s="2"/>
       <c r="BG356" s="2"/>
-    </row>
-    <row r="357" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH356" s="2"/>
+      <c r="BI356" s="2"/>
+      <c r="BJ356" s="2"/>
+      <c r="BK356" s="2"/>
+    </row>
+    <row r="357" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -23008,8 +24537,12 @@
       <c r="BE357" s="2"/>
       <c r="BF357" s="2"/>
       <c r="BG357" s="2"/>
-    </row>
-    <row r="358" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH357" s="2"/>
+      <c r="BI357" s="2"/>
+      <c r="BJ357" s="2"/>
+      <c r="BK357" s="2"/>
+    </row>
+    <row r="358" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -23067,8 +24600,12 @@
       <c r="BE358" s="2"/>
       <c r="BF358" s="2"/>
       <c r="BG358" s="2"/>
-    </row>
-    <row r="359" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH358" s="2"/>
+      <c r="BI358" s="2"/>
+      <c r="BJ358" s="2"/>
+      <c r="BK358" s="2"/>
+    </row>
+    <row r="359" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -23126,8 +24663,12 @@
       <c r="BE359" s="2"/>
       <c r="BF359" s="2"/>
       <c r="BG359" s="2"/>
-    </row>
-    <row r="360" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH359" s="2"/>
+      <c r="BI359" s="2"/>
+      <c r="BJ359" s="2"/>
+      <c r="BK359" s="2"/>
+    </row>
+    <row r="360" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -23185,8 +24726,12 @@
       <c r="BE360" s="2"/>
       <c r="BF360" s="2"/>
       <c r="BG360" s="2"/>
-    </row>
-    <row r="361" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH360" s="2"/>
+      <c r="BI360" s="2"/>
+      <c r="BJ360" s="2"/>
+      <c r="BK360" s="2"/>
+    </row>
+    <row r="361" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -23244,8 +24789,12 @@
       <c r="BE361" s="2"/>
       <c r="BF361" s="2"/>
       <c r="BG361" s="2"/>
-    </row>
-    <row r="362" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH361" s="2"/>
+      <c r="BI361" s="2"/>
+      <c r="BJ361" s="2"/>
+      <c r="BK361" s="2"/>
+    </row>
+    <row r="362" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -23303,8 +24852,12 @@
       <c r="BE362" s="2"/>
       <c r="BF362" s="2"/>
       <c r="BG362" s="2"/>
-    </row>
-    <row r="363" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH362" s="2"/>
+      <c r="BI362" s="2"/>
+      <c r="BJ362" s="2"/>
+      <c r="BK362" s="2"/>
+    </row>
+    <row r="363" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -23362,8 +24915,12 @@
       <c r="BE363" s="2"/>
       <c r="BF363" s="2"/>
       <c r="BG363" s="2"/>
-    </row>
-    <row r="364" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH363" s="2"/>
+      <c r="BI363" s="2"/>
+      <c r="BJ363" s="2"/>
+      <c r="BK363" s="2"/>
+    </row>
+    <row r="364" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -23421,8 +24978,12 @@
       <c r="BE364" s="2"/>
       <c r="BF364" s="2"/>
       <c r="BG364" s="2"/>
-    </row>
-    <row r="365" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH364" s="2"/>
+      <c r="BI364" s="2"/>
+      <c r="BJ364" s="2"/>
+      <c r="BK364" s="2"/>
+    </row>
+    <row r="365" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -23480,8 +25041,12 @@
       <c r="BE365" s="2"/>
       <c r="BF365" s="2"/>
       <c r="BG365" s="2"/>
-    </row>
-    <row r="366" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH365" s="2"/>
+      <c r="BI365" s="2"/>
+      <c r="BJ365" s="2"/>
+      <c r="BK365" s="2"/>
+    </row>
+    <row r="366" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -23539,8 +25104,12 @@
       <c r="BE366" s="2"/>
       <c r="BF366" s="2"/>
       <c r="BG366" s="2"/>
-    </row>
-    <row r="367" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BH366" s="2"/>
+      <c r="BI366" s="2"/>
+      <c r="BJ366" s="2"/>
+      <c r="BK366" s="2"/>
+    </row>
+    <row r="367" spans="3:63" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -23598,6 +25167,10 @@
       <c r="BE367" s="2"/>
       <c r="BF367" s="2"/>
       <c r="BG367" s="2"/>
+      <c r="BH367" s="2"/>
+      <c r="BI367" s="2"/>
+      <c r="BJ367" s="2"/>
+      <c r="BK367" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191878A-7DFC-464C-9958-034374C5803D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EEC6C1-C907-4CDC-9F62-807E1BD8E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A6A9719B-65E6-4B85-BB9B-7231670B31D1}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{A6A9719B-65E6-4B85-BB9B-7231670B31D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7016416-215A-409B-9E01-599FA4FEB68F}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>83.19</v>
+        <v>90.18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>2091.1680980000001</v>
+        <v>2085.4186759999998</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
       </c>
       <c r="H4" s="2">
         <f>+H2*H3</f>
-        <v>173964.27407262</v>
+        <v>188063.05620167998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -729,11 +729,11 @@
         <v>4</v>
       </c>
       <c r="H5" s="2">
-        <f>5132+894+1253</f>
-        <v>7279</v>
+        <f>5893+1084</f>
+        <v>6977</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -741,10 +741,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>8350</v>
+        <v>8347</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
       </c>
       <c r="H7" s="2">
         <f>+H4-H5+H6</f>
-        <v>175035.27407262</v>
+        <v>189433.05620167998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,11 +797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E9A702-87E9-41A0-B660-23DDD0826055}">
   <dimension ref="A1:BK367"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,9 @@
       <c r="K3" s="2">
         <v>149</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>180</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -995,7 +997,9 @@
       <c r="K4" s="2">
         <v>2572</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>3268</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1087,7 +1091,9 @@
       <c r="K5" s="2">
         <v>37651</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>46756</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1157,7 +1163,7 @@
         <v>0.28091569026999491</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:K6" si="0">+D11/D5</f>
+        <f t="shared" ref="D6:L6" si="0">+D11/D5</f>
         <v>0.27469420552959734</v>
       </c>
       <c r="E6" s="9">
@@ -1188,7 +1194,10 @@
         <f t="shared" si="0"/>
         <v>0.30631324533212928</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27057489947814184</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="2"/>
@@ -1355,7 +1364,9 @@
       <c r="K8" s="2">
         <v>6496</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>7288</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1443,13 +1454,15 @@
         <v>3470</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:K26" si="8">+U9-SUM(G9:I9)</f>
+        <f t="shared" ref="J9:J26" si="8">+U9-SUM(G9:I9)</f>
         <v>3773</v>
       </c>
       <c r="K9" s="2">
         <v>3777</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>4102</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1543,7 +1556,9 @@
       <c r="K10" s="2">
         <v>1260</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>1261</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1638,7 +1653,9 @@
       <c r="K11" s="7">
         <v>11533</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <v>12651</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1734,7 +1751,9 @@
       <c r="K12" s="2">
         <v>6937</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>7611</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1826,7 +1845,7 @@
         <v>4212</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" ref="I13:K13" si="10">+I11-I12</f>
+        <f t="shared" ref="I13:L13" si="10">+I11-I12</f>
         <v>4427</v>
       </c>
       <c r="J13" s="2">
@@ -1837,7 +1856,10 @@
         <f t="shared" si="10"/>
         <v>4596</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="10"/>
+        <v>5040</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1941,7 +1963,9 @@
       <c r="K14" s="2">
         <v>668</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>696</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2037,7 +2061,9 @@
       <c r="K15" s="2">
         <v>1057</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>1210</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2133,7 +2159,9 @@
       <c r="K16" s="2">
         <v>815</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>840</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2229,7 +2257,9 @@
       <c r="K17" s="2">
         <v>657</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>669</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2325,7 +2355,9 @@
       <c r="K18" s="2">
         <v>171</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>175</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2428,7 +2460,10 @@
         <f t="shared" si="13"/>
         <v>1228</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" si="13"/>
+        <v>1450</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2530,7 +2565,9 @@
       <c r="K20" s="2">
         <v>105</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2">
+        <v>108</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2624,7 +2661,9 @@
       <c r="K21" s="2">
         <v>262</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2">
+        <v>162</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2727,7 +2766,10 @@
         <f t="shared" si="15"/>
         <v>1385</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <f t="shared" si="15"/>
+        <v>1504</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2829,7 +2871,9 @@
       <c r="K23" s="2">
         <v>-402</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2">
+        <v>142</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2923,7 +2967,9 @@
       <c r="K24" s="2">
         <v>-13</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <v>-12</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3026,7 +3072,10 @@
         <f t="shared" si="17"/>
         <v>1774</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <f t="shared" si="17"/>
+        <v>1350</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3128,7 +3177,9 @@
       <c r="K26" s="2">
         <v>-2</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>-5</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3231,7 +3282,10 @@
         <f t="shared" si="19"/>
         <v>1776</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2">
+        <f t="shared" si="19"/>
+        <v>1355</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3398,14 +3452,17 @@
         <v>1.2304559253161786</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ref="J29:K29" si="21">+J27/J30</f>
+        <f t="shared" ref="J29:L29" si="21">+J27/J30</f>
         <v>3.3008657491972224</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" si="21"/>
         <v>0.84876012203794193</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="8">
+        <f t="shared" si="21"/>
+        <v>0.6479824552174781</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="2"/>
@@ -3506,7 +3563,9 @@
       <c r="K30" s="2">
         <v>2092.4639999999999</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2">
+        <v>2091.1060000000002</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3641,7 +3700,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="9">
-        <f t="shared" ref="G32:K34" si="23">+G3/C3-1</f>
+        <f t="shared" ref="G32:L34" si="23">+G3/C3-1</f>
         <v>0.14615384615384608</v>
       </c>
       <c r="H32" s="9">
@@ -3660,7 +3719,10 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L32" s="9"/>
+      <c r="L32" s="9">
+        <f t="shared" si="23"/>
+        <v>0.15384615384615374</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="2"/>
@@ -3756,7 +3818,10 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L33" s="9"/>
+      <c r="L33" s="9">
+        <f t="shared" si="23"/>
+        <v>0.18191681735985532</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="2"/>
@@ -3852,7 +3917,10 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L34" s="9"/>
+      <c r="L34" s="9">
+        <f t="shared" si="23"/>
+        <v>0.17030436523828585</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="2"/>
@@ -3937,7 +4005,7 @@
         <v>0.25337147527584802</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" ref="I35:K38" si="28">I8/E8-1</f>
+        <f t="shared" ref="I35:L38" si="28">I8/E8-1</f>
         <v>0.26385328337605984</v>
       </c>
       <c r="J35" s="9">
@@ -3948,7 +4016,10 @@
         <f t="shared" si="28"/>
         <v>0.15320433161725555</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="L35" s="9">
+        <f t="shared" si="28"/>
+        <v>0.18813172481252027</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="2"/>
@@ -4044,7 +4115,10 @@
         <f t="shared" si="28"/>
         <v>0.17517112632233967</v>
       </c>
-      <c r="L36" s="9"/>
+      <c r="L36" s="9">
+        <f t="shared" si="28"/>
+        <v>0.24567263893106595</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="2"/>
@@ -4140,7 +4214,10 @@
         <f t="shared" si="28"/>
         <v>-1.8691588785046731E-2</v>
       </c>
-      <c r="L37" s="9"/>
+      <c r="L37" s="9">
+        <f t="shared" si="28"/>
+        <v>-9.4265514532599903E-3</v>
+      </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="2"/>
@@ -4236,7 +4313,10 @@
         <f t="shared" si="28"/>
         <v>0.13838712861514169</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="10">
+        <f t="shared" si="28"/>
+        <v>0.18233644859813092</v>
+      </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="2"/>
@@ -4338,10 +4418,13 @@
         <v>0.39509992474287148</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K39" si="38">+K13/K11</f>
+        <f t="shared" ref="K39:L39" si="38">+K13/K11</f>
         <v>0.39850862741697735</v>
       </c>
-      <c r="L39" s="9"/>
+      <c r="L39" s="9">
+        <f t="shared" si="38"/>
+        <v>0.3983874792506521</v>
+      </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="2"/>
@@ -4449,10 +4532,13 @@
         <v>6.4804749561000088E-2</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" ref="K40" si="42">+K19/K11</f>
+        <f t="shared" ref="K40:L40" si="42">+K19/K11</f>
         <v>0.10647706581115061</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="9">
+        <f t="shared" si="42"/>
+        <v>0.11461544541933444</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="2"/>
@@ -4560,10 +4646,13 @@
         <v>-6.566739606126915</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" ref="K41" si="46">+K23/K22</f>
+        <f t="shared" ref="K41:L41" si="46">+K23/K22</f>
         <v>-0.29025270758122745</v>
       </c>
-      <c r="L41" s="9"/>
+      <c r="L41" s="9">
+        <f t="shared" si="46"/>
+        <v>9.4414893617021281E-2</v>
+      </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="2"/>
